--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="177">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -58,6 +58,151 @@
     <t xml:space="preserve">IS_WITHIN</t>
   </si>
   <si>
+    <t xml:space="preserve">$DEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.msg-center.send-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/send-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发送设置路由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.msg-center.mail-template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/mail-template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮件模板路由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.msg-center.inmail-template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/inmail-template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">站内信模板路由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.msg-center.mail-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/mail-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮箱配置路由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.msg-center.msg-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/msg-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发送记录路由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.msg-center.announcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/announcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系统公告路由</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.usercenter.user-msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/user-msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消息通知路由</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">以上为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.18.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">历史数据</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.route.usercenter.receive-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/notify/receive-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收设置路由</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">以下为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.19.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">重构数据</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -74,6 +219,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -92,18 +238,9 @@
     <t xml:space="preserve">/notify/org-announcement</t>
   </si>
   <si>
-    <t xml:space="preserve">notify-service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site</t>
-  </si>
-  <si>
     <t xml:space="preserve">组织系统公告路由</t>
   </si>
   <si>
-    <t xml:space="preserve">page</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -120,6 +257,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -144,6 +282,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组织消息日志</t>
     </r>
@@ -175,6 +314,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -199,6 +339,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组织</t>
     </r>
@@ -230,6 +371,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -254,6 +396,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组织</t>
     </r>
@@ -285,6 +428,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -300,9 +444,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">/notify/announcement</t>
-  </si>
-  <si>
     <t xml:space="preserve">全局系统公告路由</t>
   </si>
   <si>
@@ -322,6 +463,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -341,6 +483,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">site</t>
     </r>
@@ -365,6 +508,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全局消息日志</t>
     </r>
@@ -396,6 +540,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -415,6 +560,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">site</t>
     </r>
@@ -439,6 +585,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全局</t>
     </r>
@@ -470,6 +617,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">route</t>
     </r>
@@ -489,6 +637,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">site</t>
     </r>
@@ -513,6 +662,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全局</t>
     </r>
@@ -555,12 +705,141 @@
     <t xml:space="preserve">SORT</t>
   </si>
   <si>
+    <t xml:space="preserve">choerodon.code.msg-center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消息中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.top.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.msg-center.send-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发送设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.msg-center.mail-template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮件模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">application_model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.msg-center.inmail-template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">站内信模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website Mail Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inmail_template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.msg-center.mail-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邮箱配置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail Config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact_mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.msg-center.msg-record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发送记录</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message Record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker_notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.msg-center.announcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">系统公告</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Announcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.usercenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">个人中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.top.user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accessibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.usercenter.user-msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消息通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Message Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">message_notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.usercenter.receive-setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接收设置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Receive Setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settings</t>
+  </si>
+  <si>
     <t xml:space="preserve">choerodon.code.organization.announcement</t>
   </si>
   <si>
-    <t xml:space="preserve">系统公告</t>
-  </si>
-  <si>
     <t xml:space="preserve">System Announcement</t>
   </si>
   <si>
@@ -570,12 +849,6 @@
     <t xml:space="preserve">organization</t>
   </si>
   <si>
-    <t xml:space="preserve">menu_item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">volume_up</t>
-  </si>
-  <si>
     <t xml:space="preserve">choerodon.code.organization.message-log</t>
   </si>
   <si>
@@ -585,9 +858,6 @@
     <t xml:space="preserve">Message Log</t>
   </si>
   <si>
-    <t xml:space="preserve">speaker_notes</t>
-  </si>
-  <si>
     <t xml:space="preserve">choerodon.code.organization.message-setting</t>
   </si>
   <si>
@@ -600,9 +870,6 @@
     <t xml:space="preserve">choerodon.code.organization.setting</t>
   </si>
   <si>
-    <t xml:space="preserve">menu</t>
-  </si>
-  <si>
     <t xml:space="preserve">notifications</t>
   </si>
   <si>
@@ -658,6 +925,81 @@
   </si>
   <si>
     <t xml:space="preserve">#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.send-setting-site.pageSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.email-template-site.pageSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.email-template-site.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.email-template-site.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.email-template-site.query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.send-setting-site.listNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.pm-template-site.pageSite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.pm-template-site.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.pm-template-site.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.pm-template-site.query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.config.selectEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.config.testEmailConnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.config.updateEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.message-record-site.pageEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.system-announcement.pagingQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.system-announcement.create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.system-announcement.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.system-announcement.delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.site-msg-record.pagingQuery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.site-msg-record.batchDeleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.site-msg-record.batchRead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.system-announcement.pagingQueryCompleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.receive-setting.queryByUserId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.receive-setting.updateByUserId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notify-service.receive-setting.update</t>
   </si>
   <si>
     <t xml:space="preserve">FD_CATEGORY_MENU</t>
@@ -679,7 +1021,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -708,6 +1050,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
@@ -715,10 +1063,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -790,7 +1145,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,11 +1162,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -892,15 +1259,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:N1048576"/>
+  <dimension ref="D7:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17"/>
@@ -909,8 +1280,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -947,239 +1319,512 @@
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>14</v>
+      <c r="G10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>14</v>
+      <c r="G11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="2" t="s">
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
+      <c r="G13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1202,10 +1847,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:O18"/>
+  <dimension ref="D7:P32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1213,7 +1858,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.75"/>
@@ -1223,12 +1868,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1237,352 +1883,711 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O11" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O16" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O20" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="2" t="s">
+      <c r="J22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="3" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="J24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" s="3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O26" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="J27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1599,109 +2604,406 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:G17"/>
+  <dimension ref="D7:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="53.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="65.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="65.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
+      <c r="G8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>20</v>
+      <c r="F10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
+      <c r="F11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
+      <c r="F12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>29</v>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>32</v>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1721,7 +3023,7 @@
   <dimension ref="D6:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1730,137 +3032,137 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="52.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="52.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>84</v>
+      <c r="D7" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>51</v>
+      <c r="F8" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
+      <c r="F9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>51</v>
+      <c r="F10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>51</v>
+      <c r="F11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>51</v>
+      <c r="F12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>14</v>
+      <c r="F13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>14</v>
+      <c r="F14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>14</v>
+      <c r="F15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>14</v>
+      <c r="F16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>14</v>
+      <c r="F17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
@@ -702,7 +702,23 @@
     <t xml:space="preserve">ICON</t>
   </si>
   <si>
-    <t xml:space="preserve">SORT</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SORT</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">choerodon.code.msg-center</t>
@@ -1077,8 +1093,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="DejaVu Sans"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1261,14 +1277,14 @@
   </sheetPr>
   <dimension ref="D7:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
@@ -1849,8 +1865,8 @@
   </sheetPr>
   <dimension ref="D7:P32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P14" activeCellId="0" sqref="P14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1868,7 +1884,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
   </cols>
   <sheetData>
@@ -1906,7 +1922,7 @@
       <c r="N7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>73</v>
       </c>
       <c r="P7" s="2" t="s">
@@ -1991,7 +2007,7 @@
       <c r="H10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -2617,7 +2633,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="53.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="65.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="65.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="IAM_ROLE_PERMISSION" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="181">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -707,6 +708,7 @@
         <sz val="10"/>
         <rFont val="DejaVu Sans"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">@</t>
     </r>
@@ -1016,6 +1018,18 @@
   </si>
   <si>
     <t xml:space="preserve">notify-service.receive-setting.update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAM_ROLE_PERMISSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#ROLE_CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role/organization/default/administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role/site/default/administrator</t>
   </si>
   <si>
     <t xml:space="preserve">FD_CATEGORY_MENU</t>
@@ -1092,9 +1106,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1161,7 +1177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1190,7 +1206,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1277,14 +1301,14 @@
   </sheetPr>
   <dimension ref="D7:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
@@ -1865,7 +1889,7 @@
   </sheetPr>
   <dimension ref="D7:P32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -2622,8 +2646,8 @@
   </sheetPr>
   <dimension ref="D7:H41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3032,6 +3056,118 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="D7:G15"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="42.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="55.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3055,25 +3191,25 @@
   <sheetData>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>175</v>
+      <c r="H7" s="10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>118</v>
@@ -3084,7 +3220,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>122</v>
@@ -3095,7 +3231,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>125</v>
@@ -3106,7 +3242,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>130</v>
@@ -3117,7 +3253,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>134</v>
@@ -3128,7 +3264,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>138</v>
@@ -3139,7 +3275,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>140</v>
@@ -3150,7 +3286,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>141</v>
@@ -3161,7 +3297,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>143</v>
@@ -3172,7 +3308,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>144</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
@@ -1041,7 +1041,7 @@
     <t xml:space="preserve">#RESOURCE_LEVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">DEFAULT</t>
+    <t xml:space="preserve">AGILE</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3062,7 @@
   </sheetPr>
   <dimension ref="D7:G15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -3174,16 +3174,16 @@
   </sheetPr>
   <dimension ref="D6:H25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="52.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.79"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="181">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -1041,7 +1041,7 @@
     <t xml:space="preserve">#RESOURCE_LEVEL</t>
   </si>
   <si>
-    <t xml:space="preserve">AGILE</t>
+    <t xml:space="preserve">DEFAULT</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1301,7 @@
   </sheetPr>
   <dimension ref="D7:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1889,8 +1889,8 @@
   </sheetPr>
   <dimension ref="D7:P32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3172,16 +3172,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D6:H25"/>
+  <dimension ref="D6:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="52.92"/>
@@ -3234,7 +3234,7 @@
         <v>180</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>121</v>
@@ -3245,80 +3245,20 @@
         <v>180</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="IAM_MENU_B" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="IAM_ROLE_PERMISSION" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="156">
   <si>
     <t xml:space="preserve">IAM_PERMISSION</t>
   </si>
@@ -232,215 +231,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">.organization.announcement</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">/notify/org-announcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">组织系统公告路由</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">choerodon.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">route</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">.organization.message-log</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">/notify/org-msg-log</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">组织消息日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">路由</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">choerodon.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">route</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">.organization.message-service</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">/notify/org-msg-service</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">组织</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">消息服务路由</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">choerodon.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">route</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">.organization.message-config</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">/notify/org-msg-config</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">组织</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">通知配置路由</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">choerodon.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">route</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">.site.announcement</t>
     </r>
   </si>
@@ -855,19 +645,16 @@
     <t xml:space="preserve">settings</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.organization.announcement</t>
+    <t xml:space="preserve">choerodon.code.site.announcement</t>
   </si>
   <si>
     <t xml:space="preserve">System Announcement</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.organization.manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.organization.message-log</t>
+    <t xml:space="preserve">choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choerodon.code.site.message-log</t>
   </si>
   <si>
     <t xml:space="preserve">消息日志</t>
@@ -876,7 +663,7 @@
     <t xml:space="preserve">Message Log</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.organization.message-setting</t>
+    <t xml:space="preserve">choerodon.code.site.message-setting</t>
   </si>
   <si>
     <t xml:space="preserve">通知</t>
@@ -885,13 +672,13 @@
     <t xml:space="preserve">Message</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.organization.setting</t>
+    <t xml:space="preserve">choerodon.code.site.setting</t>
   </si>
   <si>
     <t xml:space="preserve">notifications</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.organization.message-service</t>
+    <t xml:space="preserve">choerodon.code.site.message-service</t>
   </si>
   <si>
     <t xml:space="preserve">消息服务</t>
@@ -903,7 +690,7 @@
     <t xml:space="preserve">sms_outline</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.organization.message-config</t>
+    <t xml:space="preserve">choerodon.code.site.message-config</t>
   </si>
   <si>
     <t xml:space="preserve">通知配置</t>
@@ -915,27 +702,6 @@
     <t xml:space="preserve">notification_setting</t>
   </si>
   <si>
-    <t xml:space="preserve">choerodon.code.site.announcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.message-log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.message-setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.message-service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choerodon.code.site.message-config</t>
-  </si>
-  <si>
     <t xml:space="preserve">IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -1026,22 +792,7 @@
     <t xml:space="preserve">#ROLE_CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">role/organization/default/administrator</t>
-  </si>
-  <si>
     <t xml:space="preserve">role/site/default/administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFAULT</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +802,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1112,13 +863,6 @@
       <family val="4"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1128,27 +872,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1177,7 +906,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1214,14 +943,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -1231,66 +952,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA3A3A3"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1301,8 +962,8 @@
   </sheetPr>
   <dimension ref="D7:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,7 +1291,7 @@
         <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>14</v>
@@ -1639,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>17</v>
@@ -1656,10 +1317,10 @@
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>14</v>
@@ -1668,7 +1329,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>17</v>
@@ -1685,10 +1346,10 @@
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>14</v>
@@ -1697,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>17</v>
@@ -1714,10 +1375,10 @@
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
@@ -1726,7 +1387,7 @@
         <v>15</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>17</v>
@@ -1741,130 +1402,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1887,10 +1436,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:P32"/>
+  <dimension ref="D7:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I22" activeCellId="0" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1914,7 +1463,7 @@
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1923,31 +1472,31 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>11</v>
@@ -1955,29 +1504,29 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="O8" s="3" t="n">
         <v>30</v>
@@ -1988,13 +1537,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>12</v>
@@ -2003,16 +1552,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="O9" s="3" t="n">
         <v>10</v>
@@ -2023,13 +1572,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>18</v>
@@ -2038,16 +1587,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="O10" s="3" t="n">
         <v>20</v>
@@ -2058,13 +1607,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>21</v>
@@ -2073,16 +1622,16 @@
         <v>14</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="O11" s="3" t="n">
         <v>30</v>
@@ -2093,13 +1642,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F12" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>24</v>
@@ -2108,16 +1657,16 @@
         <v>14</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="O12" s="3" t="n">
         <v>50</v>
@@ -2128,13 +1677,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F13" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>27</v>
@@ -2143,16 +1692,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O13" s="3" t="n">
         <v>80</v>
@@ -2163,13 +1712,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F14" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>30</v>
@@ -2178,16 +1727,16 @@
         <v>14</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O14" s="3" t="n">
         <v>70</v>
@@ -2198,28 +1747,28 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F15" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O15" s="3" t="n">
         <v>10</v>
@@ -2230,13 +1779,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>33</v>
@@ -2245,16 +1794,16 @@
         <v>14</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="O16" s="3" t="n">
         <v>60</v>
@@ -2268,13 +1817,13 @@
         <v>37</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>38</v>
@@ -2283,16 +1832,16 @@
         <v>14</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O17" s="3" t="n">
         <v>70</v>
@@ -2306,13 +1855,13 @@
         <v>41</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>42</v>
@@ -2321,109 +1870,109 @@
         <v>14</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O21" s="3" t="n">
         <v>10</v>
@@ -2431,203 +1980,51 @@
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="O22" s="3" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F23" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="O23" s="3" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O24" s="3" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="O25" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O26" s="3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O27" s="3" t="n">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2644,10 +2041,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:H41"/>
+  <dimension ref="D7:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2663,16 +2060,16 @@
   <sheetData>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -2680,10 +2077,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
@@ -2693,10 +2090,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
@@ -2706,10 +2103,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
@@ -2719,10 +2116,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
@@ -2732,10 +2129,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
@@ -2745,10 +2142,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
@@ -2756,10 +2153,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F14" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -2767,10 +2164,10 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -2778,10 +2175,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F16" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -2789,10 +2186,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F17" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -2800,10 +2197,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F18" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
@@ -2811,10 +2208,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
@@ -2822,10 +2219,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F20" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
@@ -2833,10 +2230,10 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F21" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
@@ -2844,10 +2241,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F22" s="3" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
@@ -2855,10 +2252,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F23" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
@@ -2866,10 +2263,10 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F24" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
@@ -2877,10 +2274,10 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
@@ -2888,10 +2285,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F26" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
@@ -2899,10 +2296,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F27" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
@@ -2910,10 +2307,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F28" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
@@ -2921,10 +2318,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F29" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
@@ -2932,10 +2329,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F30" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
@@ -2943,10 +2340,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F31" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1</v>
@@ -2954,10 +2351,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
@@ -2968,10 +2365,10 @@
         <v>37</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1</v>
@@ -2982,7 +2379,7 @@
         <v>41</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>42</v>
@@ -2990,60 +2387,32 @@
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F35" s="3" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F36" s="3" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F37" s="3" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F41" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3060,10 +2429,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="D7:G15"/>
+  <dimension ref="D7:G11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3080,80 +2449,48 @@
   <sheetData>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>45</v>
+        <v>155</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>155</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F11" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>155</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3165,107 +2502,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="D6:H1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="52.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.79"/>
-  </cols>
-  <sheetData>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="29" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500"/>
+    <workbookView windowWidth="26265" windowHeight="12180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -455,9 +455,6 @@
     </r>
   </si>
   <si>
-    <t>base-service</t>
-  </si>
-  <si>
     <t>IAM_MENU_B</t>
   </si>
   <si>
@@ -874,16 +871,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -901,7 +898,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,6 +907,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,6 +938,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,38 +981,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,26 +1005,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,25 +1042,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,13 +1060,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,25 +1126,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1150,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,31 +1168,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,13 +1186,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,19 +1222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,15 +1233,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1265,18 +1253,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,11 +1279,42 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,156 +1333,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1866,7 +1863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="6:15">
+    <row r="8" ht="15" spans="6:15">
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="6:15">
+    <row r="9" ht="15" spans="6:15">
       <c r="F9" s="3" t="s">
         <v>18</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="6:15">
+    <row r="10" ht="15" spans="6:15">
       <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="6:15">
+    <row r="11" ht="15" spans="6:15">
       <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1994,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="6:15">
+    <row r="12" ht="15" spans="6:15">
       <c r="F12" s="3" t="s">
         <v>27</v>
       </c>
@@ -2026,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="6:15">
+    <row r="13" ht="15" spans="6:15">
       <c r="F13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="6:15">
+    <row r="14" ht="15" spans="6:15">
       <c r="F14" s="3" t="s">
         <v>33</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="6:15">
+    <row r="15" ht="15" spans="6:15">
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="4:15">
+    <row r="16" ht="15" spans="4:15">
       <c r="D16" s="5"/>
       <c r="F16" s="3" t="s">
         <v>40</v>
@@ -2155,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="4:15">
+    <row r="17" ht="15" spans="4:15">
       <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="4:15">
+    <row r="18" ht="15" spans="4:15">
       <c r="D18" s="5" t="s">
         <v>48</v>
       </c>
@@ -2223,7 +2220,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" ht="14.25" spans="6:15">
+    <row r="19" ht="15" spans="6:15">
       <c r="F19" s="3" t="s">
         <v>51</v>
       </c>
@@ -2253,7 +2250,7 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" ht="14.25" spans="6:15">
+    <row r="20" ht="15" spans="6:15">
       <c r="F20" s="3" t="s">
         <v>54</v>
       </c>
@@ -2283,7 +2280,7 @@
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" ht="14.25" spans="6:15">
+    <row r="21" ht="15" spans="6:15">
       <c r="F21" s="3" t="s">
         <v>57</v>
       </c>
@@ -2313,7 +2310,7 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" ht="14.25" spans="6:15">
+    <row r="22" ht="15" spans="6:15">
       <c r="F22" s="3" t="s">
         <v>37</v>
       </c>
@@ -2321,7 +2318,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>15</v>
@@ -2358,8 +2355,8 @@
   <sheetPr/>
   <dimension ref="D7:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P21" sqref="G21:P21"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2383,7 +2380,7 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:16">
       <c r="D7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
@@ -2392,61 +2389,61 @@
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="6:16">
+    <row r="8" ht="15" spans="6:16">
       <c r="F8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="O8" s="3">
         <v>30</v>
@@ -2455,15 +2452,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="6:16">
+    <row r="9" ht="15" spans="6:16">
       <c r="F9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>12</v>
@@ -2472,16 +2469,16 @@
         <v>14</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="O9" s="3">
         <v>10</v>
@@ -2490,15 +2487,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="6:16">
+    <row r="10" ht="15" spans="6:16">
       <c r="F10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>18</v>
@@ -2507,16 +2504,16 @@
         <v>14</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" s="3">
         <v>20</v>
@@ -2525,15 +2522,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="6:16">
+    <row r="11" ht="15" spans="6:16">
       <c r="F11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>21</v>
@@ -2542,16 +2539,16 @@
         <v>14</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O11" s="3">
         <v>30</v>
@@ -2560,15 +2557,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="6:16">
+    <row r="12" ht="15" spans="6:16">
       <c r="F12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>24</v>
@@ -2577,16 +2574,16 @@
         <v>14</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O12" s="3">
         <v>50</v>
@@ -2595,15 +2592,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="6:16">
+    <row r="13" ht="15" spans="6:16">
       <c r="F13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>27</v>
@@ -2612,16 +2609,16 @@
         <v>14</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" s="3">
         <v>80</v>
@@ -2630,15 +2627,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="6:16">
+    <row r="14" ht="15" spans="6:16">
       <c r="F14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>30</v>
@@ -2647,16 +2644,16 @@
         <v>14</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O14" s="3">
         <v>70</v>
@@ -2665,31 +2662,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="6:16">
+    <row r="15" ht="15" spans="6:16">
       <c r="F15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O15" s="3">
         <v>10</v>
@@ -2698,15 +2695,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="6:16">
+    <row r="16" ht="15" spans="6:16">
       <c r="F16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>33</v>
@@ -2715,16 +2712,16 @@
         <v>14</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O16" s="3">
         <v>60</v>
@@ -2733,15 +2730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="6:16">
+    <row r="17" ht="15" spans="6:16">
       <c r="F17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>37</v>
@@ -2750,16 +2747,16 @@
         <v>14</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O17" s="3">
         <v>70</v>
@@ -2768,32 +2765,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="4:16">
+    <row r="18" ht="15" spans="4:16">
       <c r="D18" s="5"/>
       <c r="F18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="H18" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
         <v>42</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="O18" s="3">
         <v>30</v>
@@ -2802,16 +2799,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="4:16">
+    <row r="19" ht="15" spans="4:16">
       <c r="D19" s="5"/>
       <c r="F19" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>40</v>
@@ -2820,16 +2817,16 @@
         <v>42</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O19" s="3">
         <v>40</v>
@@ -2838,18 +2835,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="4:16">
+    <row r="20" ht="15" spans="4:16">
       <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>45</v>
@@ -2858,16 +2855,16 @@
         <v>42</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O20" s="3">
         <v>60</v>
@@ -2876,18 +2873,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="4:16">
+    <row r="21" ht="15" spans="4:16">
       <c r="D21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>49</v>
@@ -2896,31 +2893,31 @@
         <v>14</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O21" s="3">
         <v>70</v>
       </c>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" ht="14.25" spans="6:16">
+    <row r="22" ht="15" spans="6:16">
       <c r="F22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>51</v>
@@ -2929,62 +2926,62 @@
         <v>14</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O22" s="3">
         <v>80</v>
       </c>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" ht="14.25" spans="6:16">
+    <row r="23" ht="15" spans="6:16">
       <c r="F23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O23" s="3">
         <v>20</v>
       </c>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" ht="14.25" spans="6:16">
+    <row r="24" ht="15" spans="6:16">
       <c r="F24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>54</v>
@@ -2993,31 +2990,31 @@
         <v>14</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O24" s="3">
         <v>10</v>
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" ht="14.25" spans="6:16">
+    <row r="25" ht="15" spans="6:16">
       <c r="F25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>57</v>
@@ -3026,49 +3023,49 @@
         <v>14</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O25" s="3">
         <v>20</v>
       </c>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" ht="14.25" spans="6:16">
+    <row r="26" ht="15" spans="6:16">
       <c r="F26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O26" s="3">
         <v>40</v>
@@ -3107,16 +3104,16 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
@@ -3124,10 +3121,10 @@
     </row>
     <row r="8" customHeight="1" spans="6:8">
       <c r="F8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3137,10 +3134,10 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -3150,10 +3147,10 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -3163,10 +3160,10 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3176,10 +3173,10 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -3189,10 +3186,10 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3200,10 +3197,10 @@
     </row>
     <row r="14" customHeight="1" spans="6:8">
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3211,325 +3208,325 @@
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="6:8">
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="6:8">
+      <c r="F16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="6:8">
-      <c r="F16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="6:8">
+      <c r="F17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="6:8">
-      <c r="F17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="6:8">
+      <c r="F18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="6:8">
+      <c r="F19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" spans="6:8">
-      <c r="F18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="6:8">
-      <c r="F19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="6:8">
+      <c r="F20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="6:8">
-      <c r="F20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="6:8">
+      <c r="F21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="6:8">
-      <c r="F21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="6:8">
+      <c r="F22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="6:8">
-      <c r="F22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="6:8">
+      <c r="F23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="6:8">
-      <c r="F23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="6:8">
+      <c r="F24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="6:8">
-      <c r="F24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="6:8">
+      <c r="F25" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="6:8">
-      <c r="F25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="6:8">
+      <c r="F26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="6:8">
-      <c r="F26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="6:8">
+      <c r="F27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="6:8">
-      <c r="F27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="6:8">
+      <c r="F28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="6:8">
-      <c r="F28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="6:8">
+      <c r="F29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="6:8">
-      <c r="F29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="6:8">
+      <c r="F30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="6:8">
-      <c r="F30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="6:8">
+      <c r="F31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="6:8">
-      <c r="F31" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="6:8">
+      <c r="F32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="6:8">
-      <c r="F32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="6:8">
+      <c r="F33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="6:8">
-      <c r="F33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="H33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="4:8">
+    <row r="34" ht="15" spans="4:8">
       <c r="D34" s="5"/>
       <c r="F34" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="4:8">
+    <row r="35" ht="15" spans="4:8">
       <c r="D35" s="5"/>
       <c r="F35" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="4:8">
+    <row r="36" ht="15" spans="4:8">
       <c r="D36" s="5"/>
       <c r="F36" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="14.25" spans="4:8">
+    <row r="37" ht="15" spans="4:8">
       <c r="D37" s="5"/>
       <c r="F37" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="14.25" spans="4:8">
+    <row r="38" ht="15" spans="4:8">
       <c r="D38" s="5"/>
       <c r="F38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="4:8">
+    <row r="39" ht="15" spans="4:8">
       <c r="D39" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="4:7">
+    <row r="40" ht="15" spans="4:7">
       <c r="D40" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" ht="14.25" spans="6:7">
+    <row r="41" ht="15" spans="6:7">
       <c r="F41" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" ht="14.25" spans="6:7">
+    <row r="42" ht="15" spans="6:7">
       <c r="F42" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="6:7">
+    <row r="43" ht="15" spans="6:7">
       <c r="F43" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" ht="14.25" spans="6:7">
+    <row r="44" ht="15" spans="6:7">
       <c r="F44" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>37</v>
@@ -3568,21 +3565,21 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>49</v>
@@ -3590,7 +3587,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>51</v>
@@ -3598,7 +3595,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>54</v>
@@ -3606,7 +3603,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>57</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28785" windowHeight="11445" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -100,6 +100,21 @@
     <t>page</t>
   </si>
   <si>
+    <t>choerodon.route.site.message-log</t>
+  </si>
+  <si>
+    <t>/notify/msg-log</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <charset val="1"/>
+      </rPr>
+      <t>全局消息日志</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -107,6 +122,17 @@
         <rFont val="PingFang SC"/>
         <charset val="134"/>
       </rPr>
+      <t>路由</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <charset val="134"/>
+      </rPr>
       <t>choerodon.</t>
     </r>
     <r>
@@ -143,11 +169,11 @@
         <rFont val="PingFang SC"/>
         <charset val="134"/>
       </rPr>
-      <t>.message-log</t>
-    </r>
-  </si>
-  <si>
-    <t>/notify/msg-log</t>
+      <t>.message-service</t>
+    </r>
+  </si>
+  <si>
+    <t>/notify/msg-service</t>
   </si>
   <si>
     <r>
@@ -157,7 +183,7 @@
         <rFont val="PingFang SC"/>
         <charset val="1"/>
       </rPr>
-      <t>全局消息日志</t>
+      <t>全局</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +192,7 @@
         <rFont val="PingFang SC"/>
         <charset val="134"/>
       </rPr>
-      <t>路由</t>
+      <t>消息服务路由</t>
     </r>
   </si>
   <si>
@@ -213,11 +239,11 @@
         <rFont val="PingFang SC"/>
         <charset val="134"/>
       </rPr>
-      <t>.message-service</t>
-    </r>
-  </si>
-  <si>
-    <t>/notify/msg-service</t>
+      <t>.message-config</t>
+    </r>
+  </si>
+  <si>
+    <t>/notify/msg-config</t>
   </si>
   <si>
     <r>
@@ -236,8 +262,86 @@
         <rFont val="PingFang SC"/>
         <charset val="134"/>
       </rPr>
-      <t>消息服务路由</t>
-    </r>
+      <t>通知配置路由</t>
+    </r>
+  </si>
+  <si>
+    <t>choerodon.route.person.receive-setting</t>
+  </si>
+  <si>
+    <t>/notify/receive-setting</t>
+  </si>
+  <si>
+    <t>接收设置路由</t>
+  </si>
+  <si>
+    <t>IAM_MENU_B</t>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>PAGE_PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>@PARENT_CODE</t>
+  </si>
+  <si>
+    <t>@RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>@TYPE</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="DejaVu Sans"/>
+        <charset val="1"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>SORT</t>
+    </r>
+  </si>
+  <si>
+    <t>choerodon.code.site.announcement</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+  </si>
+  <si>
+    <t>System Announcement</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>volume_up</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.message-log</t>
+  </si>
+  <si>
+    <t>消息日志</t>
+  </si>
+  <si>
+    <t>Message Log</t>
   </si>
   <si>
     <r>
@@ -283,109 +387,8 @@
         <rFont val="PingFang SC"/>
         <charset val="134"/>
       </rPr>
-      <t>.message-config</t>
-    </r>
-  </si>
-  <si>
-    <t>/notify/msg-config</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <charset val="1"/>
-      </rPr>
-      <t>全局</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通知配置路由</t>
-    </r>
-  </si>
-  <si>
-    <t>choerodon.route.person.receive-setting</t>
-  </si>
-  <si>
-    <t>/notify/receive-setting</t>
-  </si>
-  <si>
-    <t>接收设置路由</t>
-  </si>
-  <si>
-    <t>IAM_MENU_B</t>
-  </si>
-  <si>
-    <t>NAME:zh_CN</t>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-  </si>
-  <si>
-    <t>PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>@PARENT_CODE</t>
-  </si>
-  <si>
-    <t>@RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>@TYPE</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="DejaVu Sans"/>
-        <charset val="1"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t>SORT</t>
-    </r>
-  </si>
-  <si>
-    <t>choerodon.code.site.announcement</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>System Announcement</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.manager</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>volume_up</t>
-  </si>
-  <si>
-    <t>choerodon.code.site.message-log</t>
-  </si>
-  <si>
-    <t>消息日志</t>
-  </si>
-  <si>
-    <t>Message Log</t>
+      <t>.message-log</t>
+    </r>
   </si>
   <si>
     <t>speaker_notes</t>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>Message Config</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.message-config</t>
   </si>
   <si>
     <t>notification_setting</t>
@@ -543,9 +549,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -589,6 +595,54 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,34 +664,62 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,76 +734,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -736,13 +749,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
@@ -758,12 +764,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -776,7 +836,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,25 +914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,6 +932,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -825,120 +945,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,6 +955,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -971,48 +1016,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,155 +1039,157 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,7 +1526,7 @@
   <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1635,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -1695,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -1747,8 +1753,8 @@
   <sheetPr/>
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1856,7 +1862,7 @@
         <v>47</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>14</v>
@@ -1871,7 +1877,7 @@
         <v>43</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" s="3">
         <v>80</v>
@@ -1880,29 +1886,29 @@
     </row>
     <row r="10" ht="15" spans="6:16">
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O10" s="3">
         <v>20</v>
@@ -1911,13 +1917,13 @@
     </row>
     <row r="11" ht="15" spans="6:16">
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>21</v>
@@ -1926,7 +1932,7 @@
         <v>14</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>15</v>
@@ -1935,7 +1941,7 @@
         <v>43</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O11" s="3">
         <v>10</v>
@@ -1944,22 +1950,22 @@
     </row>
     <row r="12" ht="15" spans="6:16">
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>15</v>
@@ -1968,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O12" s="3">
         <v>20</v>
@@ -1977,13 +1983,13 @@
     </row>
     <row r="13" ht="15" spans="6:16">
       <c r="F13" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>27</v>
@@ -1992,7 +1998,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>15</v>
@@ -2001,7 +2007,7 @@
         <v>43</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O13" s="3">
         <v>40</v>
@@ -2021,10 +2027,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H34"/>
+  <dimension ref="D7:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2040,16 +2046,16 @@
   <sheetData>
     <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
@@ -2069,8 +2075,8 @@
       <c r="F9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>71</v>
+      <c r="G9" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="15" spans="4:7">
@@ -2078,8 +2084,8 @@
       <c r="F10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>72</v>
+      <c r="G10" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" ht="15" spans="4:7">
@@ -2087,8 +2093,8 @@
       <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>73</v>
+      <c r="G11" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="15" spans="4:7">
@@ -2096,8 +2102,8 @@
       <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>74</v>
+      <c r="G12" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="15" spans="4:7">
@@ -2105,165 +2111,166 @@
       <c r="F13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="6:7">
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>21</v>
+      <c r="G13" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="4:7">
+      <c r="D14" s="5"/>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="15" spans="6:7">
       <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="15" spans="6:7">
       <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>77</v>
+        <v>56</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="15" spans="6:7">
       <c r="F17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>78</v>
+        <v>56</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="15" spans="6:7">
       <c r="F18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="19" ht="15" spans="6:7">
       <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>80</v>
+        <v>56</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" ht="15" spans="6:7">
       <c r="F20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="15" spans="6:7">
       <c r="F21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>82</v>
+        <v>56</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="15" spans="6:7">
       <c r="F22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>83</v>
+        <v>56</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" ht="15" spans="6:7">
       <c r="F23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" ht="15" spans="6:7">
       <c r="F24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" ht="15" spans="6:7">
       <c r="F25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="26" ht="15" spans="6:7">
       <c r="F26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>87</v>
+        <v>56</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="15" spans="6:7">
       <c r="F27" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>88</v>
+        <v>56</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="15" spans="6:7">
       <c r="F28" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>89</v>
+        <v>56</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="15" spans="6:7">
       <c r="F29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="15" spans="6:7">
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="15" spans="6:7">
       <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" ht="15" spans="6:7">
       <c r="F32" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="15" spans="6:7">
       <c r="F33" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>93</v>
@@ -2271,10 +2278,26 @@
     </row>
     <row r="34" ht="15" spans="6:7">
       <c r="F34" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="6:7">
+      <c r="F35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:7">
+      <c r="F36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2290,10 +2313,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G9"/>
+  <dimension ref="D7:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2310,21 +2333,21 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
@@ -2332,10 +2355,26 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="6:7">
+      <c r="F10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="6:7">
+      <c r="F11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="127">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -106,24 +106,16 @@
     <t>/notify/msg-log</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <charset val="1"/>
-      </rPr>
-      <t>全局消息日志</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路由</t>
-    </r>
+    <t>全局消息日志路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.message-log-email</t>
+  </si>
+  <si>
+    <t>/notify/msg-log/email</t>
+  </si>
+  <si>
+    <t>全局邮件日志路由</t>
   </si>
   <si>
     <r>
@@ -266,6 +258,24 @@
     </r>
   </si>
   <si>
+    <t>choerodon.route.site.message-config-email</t>
+  </si>
+  <si>
+    <t>/notify/msg-config/email</t>
+  </si>
+  <si>
+    <t>全局邮箱配置路由</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.message-config-sms</t>
+  </si>
+  <si>
+    <t>/notify/msg-config/sms</t>
+  </si>
+  <si>
+    <t>全局短信配置路由</t>
+  </si>
+  <si>
     <t>choerodon.route.person.receive-setting</t>
   </si>
   <si>
@@ -394,6 +404,18 @@
     <t>speaker_notes</t>
   </si>
   <si>
+    <t>choerodon.code.site.message-log-email</t>
+  </si>
+  <si>
+    <t>邮件日志</t>
+  </si>
+  <si>
+    <t>Email Log</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
     <t>choerodon.code.site.message-setting</t>
   </si>
   <si>
@@ -439,6 +461,24 @@
     <t>notification_setting</t>
   </si>
   <si>
+    <t>choerodon.code.site.message-config-email</t>
+  </si>
+  <si>
+    <t>邮箱配置</t>
+  </si>
+  <si>
+    <t>Email Config</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.message-config-sms</t>
+  </si>
+  <si>
+    <t>短信配置</t>
+  </si>
+  <si>
+    <t>SMS Config</t>
+  </si>
+  <si>
     <t>choerodon.code.person.receive-setting</t>
   </si>
   <si>
@@ -478,6 +518,15 @@
     <t>notify-service.system-announcement.getDetail</t>
   </si>
   <si>
+    <t>notify-service.message-record-site.pageEmail</t>
+  </si>
+  <si>
+    <t>notify-service.message-record-site.manualRetrySendEmail</t>
+  </si>
+  <si>
+    <t>choerodon.route.site.message-service</t>
+  </si>
+  <si>
     <t>notify-service.send-setting-site.pageSite</t>
   </si>
   <si>
@@ -521,6 +570,21 @@
   </si>
   <si>
     <t>notify-service.send-setting-site.allowConfig</t>
+  </si>
+  <si>
+    <t>notify-service.config.selectEmail</t>
+  </si>
+  <si>
+    <t>notify-service.config.testEmailConnect</t>
+  </si>
+  <si>
+    <t>notify-service.config.updateEmail</t>
+  </si>
+  <si>
+    <t>notify-service.sms.queryConfig</t>
+  </si>
+  <si>
+    <t>notify-service.sms.updateConfig</t>
   </si>
   <si>
     <t>base-service.user.queryByUserIdOrganizationProject</t>
@@ -549,12 +613,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -572,29 +636,35 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="DejaVu Sans"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,26 +678,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,14 +700,96 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,9 +805,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,76 +819,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
@@ -764,25 +834,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,157 +960,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,6 +1025,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -969,6 +1057,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -988,15 +1087,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1008,15 +1098,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,171 +1120,161 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1523,10 +1594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:O12"/>
+  <dimension ref="D7:O15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1550,37 +1621,37 @@
   </cols>
   <sheetData>
     <row r="7" customHeight="1" spans="4:15">
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -1588,155 +1659,242 @@
       </c>
     </row>
     <row r="8" ht="15" spans="4:15">
-      <c r="D8" s="5"/>
-      <c r="F8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="O8" s="3"/>
+      <c r="O8" s="5"/>
     </row>
     <row r="9" ht="15" spans="6:15">
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="5">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="O9" s="3"/>
+      <c r="O9" s="5"/>
     </row>
     <row r="10" ht="15" spans="6:15">
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="5">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="5">
         <v>0</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" ht="15" spans="6:15">
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="5">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" ht="15" spans="6:15">
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="5">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" ht="15" spans="6:14">
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="6:14">
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="6:14">
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
         <v>1</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N15" s="5">
         <v>0</v>
       </c>
-      <c r="O12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1751,10 +1909,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:P13"/>
+  <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1777,242 +1935,332 @@
   </cols>
   <sheetData>
     <row r="7" customHeight="1" spans="4:16">
-      <c r="D7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>38</v>
+      <c r="K7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="15" spans="4:16">
-      <c r="D8" s="5"/>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" s="5">
+        <v>70</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" ht="15" spans="6:16">
+      <c r="F9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="5">
+        <v>80</v>
+      </c>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" ht="15" spans="6:16">
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
+        <v>10</v>
+      </c>
+      <c r="P10" s="5"/>
+    </row>
+    <row r="11" ht="15" spans="6:16">
+      <c r="F11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="5">
+        <v>20</v>
+      </c>
+      <c r="P11" s="5"/>
+    </row>
+    <row r="12" ht="15" spans="6:16">
+      <c r="F12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="5">
+        <v>10</v>
+      </c>
+      <c r="P12" s="5"/>
+    </row>
+    <row r="13" ht="15" spans="6:16">
+      <c r="F13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="5">
+        <v>20</v>
+      </c>
+      <c r="P13" s="5"/>
+    </row>
+    <row r="14" ht="15" spans="6:15">
+      <c r="F14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="6:15">
+      <c r="F15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="6:15">
+      <c r="F16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" s="5">
         <v>40</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="3">
-        <v>70</v>
-      </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" ht="15" spans="6:16">
-      <c r="F9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="3">
-        <v>80</v>
-      </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" ht="15" spans="6:16">
-      <c r="F10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="3">
-        <v>20</v>
-      </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" ht="15" spans="6:16">
-      <c r="F11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="3">
-        <v>10</v>
-      </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" ht="15" spans="6:16">
-      <c r="F12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="3">
-        <v>20</v>
-      </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" ht="15" spans="6:16">
-      <c r="F13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="3">
-        <v>40</v>
-      </c>
-      <c r="P13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2027,10 +2275,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H36"/>
+  <dimension ref="D7:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2045,259 +2293,342 @@
   </cols>
   <sheetData>
     <row r="7" customHeight="1" spans="4:8">
-      <c r="D7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>72</v>
+      <c r="F7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="15" spans="4:7">
-      <c r="D8" s="5"/>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="15" spans="4:7">
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="F9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="4:7">
+      <c r="D10" s="4"/>
+      <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="4:7">
+      <c r="D11" s="4"/>
+      <c r="F11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="4:7">
+      <c r="D12" s="4"/>
+      <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="4:7">
+      <c r="D13" s="4"/>
+      <c r="F13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="4:7">
+      <c r="D14" s="4"/>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="4:7">
+      <c r="D15" s="4"/>
+      <c r="F15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="4:7">
+      <c r="D16" s="4"/>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="4:7">
+      <c r="D17" s="4"/>
+      <c r="F17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="6:7">
+      <c r="F18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="6:7">
+      <c r="F19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="6:7">
+      <c r="F20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="6:7">
+      <c r="F21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="6:7">
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="6:7">
+      <c r="F23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="6:7">
+      <c r="F24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="6:7">
+      <c r="F25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="6:7">
+      <c r="F26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="6:7">
+      <c r="F27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="6:7">
+      <c r="F28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="6:7">
+      <c r="F29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="6:7">
+      <c r="F30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="6:7">
+      <c r="F31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="6:7">
+      <c r="F32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="6:7">
+      <c r="F33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="6:7">
+      <c r="F34" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="4:7">
-      <c r="D10" s="5"/>
-      <c r="F10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="4:7">
-      <c r="D11" s="5"/>
-      <c r="F11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="4:7">
-      <c r="D12" s="5"/>
-      <c r="F12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="G34" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="4:7">
-      <c r="D13" s="5"/>
-      <c r="F13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="4:7">
-      <c r="D14" s="5"/>
-      <c r="F14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="6:7">
-      <c r="F15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="6:7">
-      <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="7" t="s">
+    <row r="35" ht="15" spans="6:7">
+      <c r="F35" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" ht="15" spans="6:7">
-      <c r="F17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="6:7">
-      <c r="F18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="6:7">
-      <c r="F19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="G35" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:7">
+      <c r="F36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="6:7">
+      <c r="F37" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="6:7">
+      <c r="F38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="6:7">
+      <c r="F39" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="6:7">
-      <c r="F20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="6:7">
-      <c r="F21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="6:7">
-      <c r="F22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="G39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="6:7">
+      <c r="F40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="6:7">
+      <c r="F41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="6:7">
+      <c r="F42" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="6:7">
-      <c r="F23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="6:7">
-      <c r="F24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="6:7">
-      <c r="F25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="6:7">
-      <c r="F26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="6:7">
-      <c r="F27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="6:7">
-      <c r="F28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="6:7">
-      <c r="F29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="6:7">
-      <c r="F30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="6:7">
-      <c r="F31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="6:7">
-      <c r="F32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="6:7">
-      <c r="F33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="6:7">
-      <c r="F34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="6:7">
-      <c r="F35" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="6:7">
-      <c r="F36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>96</v>
+      <c r="G42" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="6:7">
+      <c r="F43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="6:7">
+      <c r="F44" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="6:7">
+      <c r="F45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="6:7">
+      <c r="F46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2313,10 +2644,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G11"/>
+  <dimension ref="D7:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -2333,48 +2664,72 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="6:7">
+      <c r="F12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" spans="6:7">
+      <c r="F13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="6:7">
+      <c r="F14" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="500" activeTab="3"/>
+    <workbookView windowWidth="26325" windowHeight="11670" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -613,10 +613,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -661,6 +661,34 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -670,8 +698,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,10 +796,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,122 +813,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -834,6 +834,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -846,19 +906,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,151 +1002,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,20 +1028,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1073,21 +1085,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1102,17 +1099,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,149 +1128,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1702,7 +1701,7 @@
       <c r="I9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -1732,7 +1731,7 @@
       <c r="I10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -1822,7 +1821,7 @@
       <c r="I13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -1851,7 +1850,7 @@
       <c r="I14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="5" t="s">
@@ -1880,7 +1879,7 @@
       <c r="I15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K15" s="5" t="s">
@@ -1911,8 +1910,8 @@
   <sheetPr/>
   <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1965,10 +1964,10 @@
       <c r="M7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="O7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -2005,7 +2004,7 @@
         <v>53</v>
       </c>
       <c r="O8" s="5">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="P8" s="5"/>
     </row>
@@ -2038,7 +2037,7 @@
         <v>58</v>
       </c>
       <c r="O9" s="5">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P9" s="5"/>
     </row>
@@ -2100,7 +2099,7 @@
         <v>68</v>
       </c>
       <c r="O11" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P11" s="5"/>
     </row>
@@ -2174,7 +2173,7 @@
       <c r="F14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2204,7 +2203,7 @@
       <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -2386,7 +2385,7 @@
       <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2395,7 +2394,7 @@
       <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2547,7 +2546,7 @@
       <c r="F36" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2555,7 +2554,7 @@
       <c r="F37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2563,7 +2562,7 @@
       <c r="F38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2579,7 +2578,7 @@
       <c r="F40" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2587,7 +2586,7 @@
       <c r="F41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="6" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2646,7 +2645,7 @@
   <sheetPr/>
   <dimension ref="D7:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binjiechen/notify-service/src/main/resources/script/meta/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E7C15-8F66-7347-826D-EAB2A0FB613C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="26325" windowHeight="11670" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26320" windowHeight="11680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -61,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -70,7 +76,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route</t>
     </r>
@@ -79,6 +86,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.site.announcement</t>
@@ -123,6 +131,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -132,7 +141,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route</t>
     </r>
@@ -141,6 +151,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -150,7 +161,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>site</t>
     </r>
@@ -159,6 +171,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.message-service</t>
@@ -173,7 +186,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>全局</t>
     </r>
@@ -182,6 +196,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>消息服务路由</t>
@@ -193,6 +208,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -202,7 +218,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route</t>
     </r>
@@ -211,6 +228,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -220,7 +238,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>site</t>
     </r>
@@ -229,6 +248,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.message-config</t>
@@ -243,7 +263,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>全局</t>
     </r>
@@ -252,6 +273,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通知配置路由</t>
@@ -321,7 +343,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>SORT</t>
     </r>
@@ -359,6 +381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -368,7 +391,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>route</t>
     </r>
@@ -377,6 +401,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -386,7 +411,8 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <charset val="1"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>site</t>
     </r>
@@ -395,6 +421,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.message-log</t>
@@ -443,9 +470,6 @@
     <t>Message Service</t>
   </si>
   <si>
-    <t>sms_outline</t>
-  </si>
-  <si>
     <t>choerodon.code.site.message-config</t>
   </si>
   <si>
@@ -606,19 +630,17 @@
   </si>
   <si>
     <t>role/site/default/administrator</t>
+  </si>
+  <si>
+    <t>textsms</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -627,13 +649,14 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <charset val="1"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -644,382 +667,43 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1027,241 +711,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1275,61 +727,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1587,39 +995,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="3.74285714285714" customWidth="1"/>
-    <col min="2" max="2" width="4.97142857142857" customWidth="1"/>
-    <col min="3" max="3" width="4.17142857142857" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="4.19921875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="52.6571428571429" customWidth="1"/>
-    <col min="7" max="7" width="31.4" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="52.59765625" customWidth="1"/>
+    <col min="7" max="7" width="31.3984375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="23.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="23.19921875" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.1904761904762" customWidth="1"/>
-    <col min="13" max="13" width="18.8" customWidth="1"/>
-    <col min="14" max="14" width="19.3809523809524" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="18.796875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="16" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:15">
+    <row r="8" spans="4:15" ht="19">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1688,7 +1096,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="15" spans="6:15">
+    <row r="9" spans="4:15" ht="19">
       <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1718,7 +1126,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="15" spans="6:15">
+    <row r="10" spans="4:15" ht="19">
       <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1748,7 +1156,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" ht="15" spans="6:15">
+    <row r="11" spans="4:15" ht="19">
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1778,7 +1186,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" ht="15" spans="6:15">
+    <row r="12" spans="4:15" ht="19">
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1216,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" ht="15" spans="6:14">
+    <row r="13" spans="4:15" ht="19">
       <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1837,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="6:14">
+    <row r="14" spans="4:15" ht="19">
       <c r="F14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:14">
+    <row r="15" spans="4:15" ht="19">
       <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1896,8 +1304,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1906,34 +1315,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="2.92380952380952" customWidth="1"/>
-    <col min="2" max="2" width="4.01904761904762" customWidth="1"/>
-    <col min="3" max="3" width="2.92380952380952" customWidth="1"/>
-    <col min="4" max="4" width="19.0380952380952" customWidth="1"/>
-    <col min="5" max="5" width="5.6952380952381" customWidth="1"/>
-    <col min="6" max="6" width="49.1809523809524" customWidth="1"/>
-    <col min="7" max="7" width="13.752380952381" customWidth="1"/>
-    <col min="8" max="8" width="25.8380952380952" customWidth="1"/>
-    <col min="9" max="9" width="53.6285714285714" customWidth="1"/>
-    <col min="10" max="10" width="15.8380952380952" customWidth="1"/>
-    <col min="11" max="11" width="49.4571428571429" customWidth="1"/>
-    <col min="12" max="12" width="19.1904761904762" customWidth="1"/>
-    <col min="13" max="13" width="13.752380952381" customWidth="1"/>
-    <col min="14" max="14" width="22.6190476190476" customWidth="1"/>
-    <col min="15" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="49.19921875" customWidth="1"/>
+    <col min="7" max="7" width="13.796875" customWidth="1"/>
+    <col min="8" max="8" width="25.796875" customWidth="1"/>
+    <col min="9" max="9" width="53.59765625" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" customWidth="1"/>
+    <col min="11" max="11" width="49.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
+    <col min="13" max="13" width="13.796875" customWidth="1"/>
+    <col min="14" max="14" width="22.59765625" customWidth="1"/>
+    <col min="15" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:16">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1974,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:16">
+    <row r="8" spans="4:16" ht="19">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -2008,7 +1416,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" ht="15" spans="6:16">
+    <row r="9" spans="4:16" ht="19">
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
@@ -2041,7 +1449,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" ht="15" spans="6:16">
+    <row r="10" spans="4:16" ht="19">
       <c r="F10" s="5" t="s">
         <v>59</v>
       </c>
@@ -2072,7 +1480,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" ht="15" spans="6:16">
+    <row r="11" spans="4:16" ht="19">
       <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
@@ -2103,7 +1511,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" ht="15" spans="6:16">
+    <row r="12" spans="4:16" ht="19">
       <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
@@ -2129,25 +1537,25 @@
         <v>52</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="O12" s="5">
         <v>10</v>
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" ht="15" spans="6:16">
+    <row r="13" spans="4:16" ht="19">
       <c r="F13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>14</v>
@@ -2162,22 +1570,22 @@
         <v>52</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O13" s="5">
         <v>20</v>
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" ht="15" spans="6:15">
+    <row r="14" spans="4:16" ht="19">
       <c r="F14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>30</v>
@@ -2186,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>15</v>
@@ -2199,15 +1607,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="6:15">
+    <row r="15" spans="4:16" ht="19">
       <c r="F15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>33</v>
@@ -2216,7 +1624,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>15</v>
@@ -2229,15 +1637,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="6:15">
+    <row r="16" spans="4:16" ht="19">
       <c r="F16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>36</v>
@@ -2246,7 +1654,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>15</v>
@@ -2255,15 +1663,16 @@
         <v>52</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O16" s="5">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2272,43 +1681,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="4.71428571428571" customWidth="1"/>
-    <col min="2" max="3" width="4.17142857142857" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="53.8" customWidth="1"/>
-    <col min="7" max="7" width="65.6190476190476" customWidth="1"/>
-    <col min="8" max="1025" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" customWidth="1"/>
+    <col min="2" max="3" width="4.19921875" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" customWidth="1"/>
+    <col min="6" max="6" width="53.796875" customWidth="1"/>
+    <col min="7" max="7" width="65.59765625" customWidth="1"/>
+    <col min="8" max="1025" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:8">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="4:7">
+    <row r="8" spans="4:8" ht="19">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -2317,52 +1725,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="4:7">
+    <row r="9" spans="4:8" ht="19">
       <c r="D9" s="4"/>
       <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="4:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" ht="19">
       <c r="D10" s="4"/>
       <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="4:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="19">
       <c r="D11" s="4"/>
       <c r="F11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="4:7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="19">
       <c r="D12" s="4"/>
       <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="4:7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" ht="19">
       <c r="D13" s="4"/>
       <c r="F13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="4:7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" ht="19">
       <c r="D14" s="4"/>
       <c r="F14" s="6" t="s">
         <v>54</v>
@@ -2371,7 +1779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="4:7">
+    <row r="15" spans="4:8" ht="19">
       <c r="D15" s="4"/>
       <c r="F15" s="6" t="s">
         <v>59</v>
@@ -2380,259 +1788,260 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="4:7">
+    <row r="16" spans="4:8" ht="19">
       <c r="D16" s="4"/>
       <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="4:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="19">
       <c r="D17" s="4"/>
       <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="6:7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="19">
       <c r="F18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="6:7">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="19">
       <c r="F19" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="6:7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="19">
       <c r="F20" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="6:7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="19">
       <c r="F21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="6:7">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="19">
       <c r="F22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="6:7">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="19">
       <c r="F23" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="6:7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="19">
       <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="6:7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="19">
       <c r="F25" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="6:7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="19">
       <c r="F26" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="6:7">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="19">
       <c r="F27" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="6:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="19">
       <c r="F28" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="6:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" ht="19">
       <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="6:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" ht="19">
       <c r="F30" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="6:7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" ht="19">
       <c r="F31" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="6:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="19">
       <c r="F32" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="6:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" ht="19">
       <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="6:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" ht="19">
       <c r="F34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="6:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" ht="19">
       <c r="F35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="6:7">
+    <row r="36" spans="6:7" ht="19">
       <c r="F36" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="6:7" ht="19">
+      <c r="F37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="6:7">
-      <c r="F37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="6" t="s">
+    <row r="38" spans="6:7" ht="19">
+      <c r="F38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="6:7">
-      <c r="F38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="6:7">
+    <row r="39" spans="6:7" ht="19">
       <c r="F39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="6:7">
+    <row r="40" spans="6:7" ht="19">
       <c r="F40" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="6:7" ht="19">
+      <c r="F41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="6:7">
-      <c r="F41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="6:7">
+    <row r="42" spans="6:7" ht="19">
       <c r="F42" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" ht="15" spans="6:7">
+    <row r="43" spans="6:7" ht="19">
       <c r="F43" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="6:7" ht="19">
+      <c r="F44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="6:7">
-      <c r="F44" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G44" s="6" t="s">
+    <row r="45" spans="6:7" ht="19">
+      <c r="F45" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="6:7">
-      <c r="F45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G45" s="6" t="s">
+    <row r="46" spans="6:7" ht="19">
+      <c r="F46" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="6:7">
-      <c r="F46" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2641,98 +2050,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="6.11428571428571" customWidth="1"/>
-    <col min="2" max="2" width="4.97142857142857" customWidth="1"/>
-    <col min="3" max="3" width="7.21904761904762" customWidth="1"/>
-    <col min="4" max="4" width="25.8380952380952" customWidth="1"/>
-    <col min="5" max="5" width="7.21904761904762" customWidth="1"/>
-    <col min="6" max="6" width="42.647619047619" customWidth="1"/>
-    <col min="7" max="7" width="55.2857142857143" customWidth="1"/>
-    <col min="8" max="1025" width="11.5238095238095"/>
+    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" customWidth="1"/>
+    <col min="6" max="6" width="42.59765625" customWidth="1"/>
+    <col min="7" max="7" width="55.19921875" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="19">
+      <c r="F8" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" spans="6:7">
-      <c r="F8" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="6:7">
+    <row r="9" spans="4:7" ht="16">
       <c r="F9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="6:7">
+    <row r="10" spans="4:7" ht="16">
       <c r="F10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="6:7">
+    <row r="11" spans="4:7" ht="19">
       <c r="F11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="6:7">
+    <row r="12" spans="4:7" ht="19">
       <c r="F12" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="6:7">
+    <row r="13" spans="4:7" ht="16">
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" ht="15.75" spans="6:7">
+    <row r="14" spans="4:7" ht="16">
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/binjiechen/notify-service/src/main/resources/script/meta/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4E7C15-8F66-7347-826D-EAB2A0FB613C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26320" windowHeight="11680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -66,7 +60,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -76,7 +69,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>route</t>
@@ -86,7 +78,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.site.announcement</t>
@@ -131,7 +122,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -141,7 +131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>route</t>
@@ -151,7 +140,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -161,7 +149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>site</t>
@@ -171,7 +158,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.message-service</t>
@@ -186,7 +172,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>全局</t>
@@ -196,7 +181,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>消息服务路由</t>
@@ -208,7 +192,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -218,7 +201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>route</t>
@@ -228,7 +210,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -238,7 +219,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>site</t>
@@ -248,7 +228,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.message-config</t>
@@ -263,7 +242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>全局</t>
@@ -273,7 +251,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>通知配置路由</t>
@@ -343,7 +320,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>SORT</t>
     </r>
@@ -381,7 +358,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>choerodon.</t>
@@ -391,7 +367,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>route</t>
@@ -401,7 +376,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -411,7 +385,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>site</t>
@@ -421,7 +394,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.message-log</t>
@@ -470,6 +442,9 @@
     <t>Message Service</t>
   </si>
   <si>
+    <t>textsms</t>
+  </si>
+  <si>
     <t>choerodon.code.site.message-config</t>
   </si>
   <si>
@@ -590,6 +565,9 @@
     <t>notify-service.send-setting-site.disabled</t>
   </si>
   <si>
+    <t>notify-service.send-setting-site.forbiddenConfig</t>
+  </si>
+  <si>
     <t>notify-service.send-setting-site.enabled</t>
   </si>
   <si>
@@ -630,17 +608,19 @@
   </si>
   <si>
     <t>role/site/default/administrator</t>
-  </si>
-  <si>
-    <t>textsms</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -649,13 +629,12 @@
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -667,43 +646,371 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="PingFang SC"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -711,9 +1018,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -727,17 +1276,61 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -995,39 +1588,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O15"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.8" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="4.2" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="52.59765625" customWidth="1"/>
-    <col min="7" max="7" width="31.3984375" customWidth="1"/>
+    <col min="5" max="5" width="8.6" customWidth="1"/>
+    <col min="6" max="6" width="52.6" customWidth="1"/>
+    <col min="7" max="7" width="31.4" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="23.19921875" customWidth="1"/>
+    <col min="10" max="10" width="23.2" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="18.796875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="13" width="18.8" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="19">
+    <row r="8" ht="14.25" spans="4:15">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1096,7 +1689,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="4:15" ht="19">
+    <row r="9" ht="14.25" spans="6:15">
       <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1719,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="4:15" ht="19">
+    <row r="10" ht="14.25" spans="6:15">
       <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1749,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="4:15" ht="19">
+    <row r="11" ht="14.25" spans="6:15">
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1779,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="4:15" ht="19">
+    <row r="12" ht="14.25" spans="6:15">
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1809,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="4:15" ht="19">
+    <row r="13" ht="14.25" spans="6:14">
       <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:15" ht="19">
+    <row r="14" ht="14.25" spans="6:14">
       <c r="F14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1274,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="19">
+    <row r="15" ht="14.25" spans="6:14">
       <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1304,9 +1897,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1315,33 +1907,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="5.59765625" customWidth="1"/>
-    <col min="6" max="6" width="49.19921875" customWidth="1"/>
-    <col min="7" max="7" width="13.796875" customWidth="1"/>
-    <col min="8" max="8" width="25.796875" customWidth="1"/>
-    <col min="9" max="9" width="53.59765625" customWidth="1"/>
-    <col min="10" max="10" width="15.796875" customWidth="1"/>
-    <col min="11" max="11" width="49.3984375" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" customWidth="1"/>
-    <col min="13" max="13" width="13.796875" customWidth="1"/>
-    <col min="14" max="14" width="22.59765625" customWidth="1"/>
-    <col min="15" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="5.6" customWidth="1"/>
+    <col min="6" max="6" width="49.2" customWidth="1"/>
+    <col min="7" max="7" width="13.8" customWidth="1"/>
+    <col min="8" max="8" width="25.8" customWidth="1"/>
+    <col min="9" max="9" width="53.6" customWidth="1"/>
+    <col min="10" max="10" width="15.8" customWidth="1"/>
+    <col min="11" max="11" width="49.4" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="13" width="13.8" customWidth="1"/>
+    <col min="14" max="14" width="22.6" customWidth="1"/>
+    <col min="15" max="1025" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:16">
       <c r="D7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1382,7 +1975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="19">
+    <row r="8" ht="14.25" spans="4:16">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -1416,7 +2009,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" spans="4:16" ht="19">
+    <row r="9" ht="14.25" spans="6:16">
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
@@ -1449,7 +2042,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" spans="4:16" ht="19">
+    <row r="10" ht="14.25" spans="6:16">
       <c r="F10" s="5" t="s">
         <v>59</v>
       </c>
@@ -1480,7 +2073,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" spans="4:16" ht="19">
+    <row r="11" ht="14.25" spans="6:16">
       <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
@@ -1511,7 +2104,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" spans="4:16" ht="19">
+    <row r="12" ht="14.25" spans="6:16">
       <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
@@ -1537,25 +2130,25 @@
         <v>52</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="O12" s="5">
         <v>10</v>
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="4:16" ht="19">
+    <row r="13" ht="14.25" spans="6:16">
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>14</v>
@@ -1570,22 +2163,22 @@
         <v>52</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O13" s="5">
         <v>20</v>
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="4:16" ht="19">
+    <row r="14" ht="14.25" spans="6:15">
       <c r="F14" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>30</v>
@@ -1594,7 +2187,7 @@
         <v>14</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>15</v>
@@ -1607,15 +2200,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="4:16" ht="19">
+    <row r="15" ht="14.25" spans="6:15">
       <c r="F15" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>33</v>
@@ -1624,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>15</v>
@@ -1637,15 +2230,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="4:16" ht="19">
+    <row r="16" ht="14.25" spans="6:15">
       <c r="F16" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>36</v>
@@ -1654,7 +2247,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>15</v>
@@ -1663,16 +2256,15 @@
         <v>52</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O16" s="5">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -1681,42 +2273,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="4.796875" customWidth="1"/>
-    <col min="2" max="3" width="4.19921875" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="53.796875" customWidth="1"/>
-    <col min="7" max="7" width="65.59765625" customWidth="1"/>
-    <col min="8" max="1025" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.8" customWidth="1"/>
+    <col min="2" max="3" width="4.2" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="8.6" customWidth="1"/>
+    <col min="6" max="6" width="53.8" customWidth="1"/>
+    <col min="7" max="7" width="65.6" customWidth="1"/>
+    <col min="8" max="1025" width="8.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:8">
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="19">
+    <row r="8" ht="14.25" spans="4:7">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -1725,52 +2318,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="19">
+    <row r="9" ht="14.25" spans="4:7">
       <c r="D9" s="4"/>
       <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" ht="19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="4:7">
       <c r="D10" s="4"/>
       <c r="F10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" ht="19">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="4:7">
       <c r="D11" s="4"/>
       <c r="F11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" ht="19">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="4:7">
       <c r="D12" s="4"/>
       <c r="F12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" ht="19">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="4:7">
       <c r="D13" s="4"/>
       <c r="F13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" ht="19">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="4:7">
       <c r="D14" s="4"/>
       <c r="F14" s="6" t="s">
         <v>54</v>
@@ -1779,7 +2372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="19">
+    <row r="15" ht="14.25" spans="4:7">
       <c r="D15" s="4"/>
       <c r="F15" s="6" t="s">
         <v>59</v>
@@ -1788,260 +2381,267 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="4:8" ht="19">
+    <row r="16" ht="14.25" spans="4:7">
       <c r="D16" s="4"/>
       <c r="F16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" ht="19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="4:7">
       <c r="D17" s="4"/>
       <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="19">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="6:7">
       <c r="F18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="19">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="6:7">
       <c r="F19" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="6:7">
       <c r="F20" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" ht="19">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="6:7">
       <c r="F21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="6:7">
       <c r="F22" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" ht="19">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="6:7">
       <c r="F23" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="6:7">
       <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="6:7">
       <c r="F25" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" ht="19">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="6:7">
       <c r="F26" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" ht="19">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="6:7">
       <c r="F27" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" ht="19">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="6:7">
       <c r="F28" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" ht="19">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="6:7">
       <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" ht="19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="6:7">
       <c r="F30" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" ht="19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="6:7">
       <c r="F31" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" ht="19">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="6:7">
       <c r="F32" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" ht="19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="6:7">
       <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" ht="19">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="6:7">
       <c r="F34" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" ht="19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="6:7">
       <c r="F35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="6:7">
+      <c r="F36" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="6:7" ht="19">
-      <c r="F36" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" ht="19">
+    <row r="37" ht="14.25" spans="6:7">
       <c r="F37" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" ht="19">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="6:7">
       <c r="F38" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" ht="19">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="6:7">
       <c r="F39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="6:7">
+      <c r="F40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="6:7" ht="19">
-      <c r="F40" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" ht="19">
+    <row r="41" ht="14.25" spans="6:7">
       <c r="F41" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" ht="19">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" spans="6:7">
       <c r="F42" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="6:7">
+      <c r="F43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="6:7" ht="19">
-      <c r="F43" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" ht="19">
+    <row r="44" ht="14.25" spans="6:7">
       <c r="F44" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" ht="19">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="6:7">
       <c r="F45" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" ht="19">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="6:7">
       <c r="F46" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="6:7">
+      <c r="F47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,常规"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,常规"&amp;12 Page &amp;P</oddFooter>
@@ -2050,98 +2650,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" customWidth="1"/>
+    <col min="1" max="1" width="6.2" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="25.796875" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="42.59765625" customWidth="1"/>
-    <col min="7" max="7" width="55.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625"/>
+    <col min="3" max="3" width="7.2" customWidth="1"/>
+    <col min="4" max="4" width="25.8" customWidth="1"/>
+    <col min="5" max="5" width="7.2" customWidth="1"/>
+    <col min="6" max="6" width="42.6" customWidth="1"/>
+    <col min="7" max="7" width="55.2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="19">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="16">
+    <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="16">
+    <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="19">
+    <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:7" ht="19">
+    <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="16">
+    <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="4:7" ht="16">
+    <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="129">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -565,6 +565,9 @@
     <t>notify-service.send-setting-site.disabled</t>
   </si>
   <si>
+    <t>notify-service.template-site.createPmTemplate</t>
+  </si>
+  <si>
     <t>notify-service.send-setting-site.forbiddenConfig</t>
   </si>
   <si>
@@ -615,9 +618,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -666,36 +669,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,6 +688,64 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -741,35 +773,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -787,22 +790,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -815,6 +803,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -825,25 +828,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,157 +1008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,17 +1019,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1093,15 +1085,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1116,151 +1099,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1658,7 +1661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="4:15">
+    <row r="8" ht="15" spans="4:15">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>12</v>
@@ -1689,7 +1692,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="14.25" spans="6:15">
+    <row r="9" ht="15" spans="6:15">
       <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="14.25" spans="6:15">
+    <row r="10" ht="15" spans="6:15">
       <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +1752,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" ht="14.25" spans="6:15">
+    <row r="11" ht="15" spans="6:15">
       <c r="F11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1779,7 +1782,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" ht="14.25" spans="6:15">
+    <row r="12" ht="15" spans="6:15">
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1812,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" ht="14.25" spans="6:14">
+    <row r="13" ht="15" spans="6:14">
       <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="6:14">
+    <row r="14" ht="15" spans="6:14">
       <c r="F14" s="5" t="s">
         <v>33</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="6:14">
+    <row r="15" ht="15" spans="6:14">
       <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1975,7 +1978,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="4:16">
+    <row r="8" ht="15" spans="4:16">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -2009,7 +2012,7 @@
       </c>
       <c r="P8" s="5"/>
     </row>
-    <row r="9" ht="14.25" spans="6:16">
+    <row r="9" ht="15" spans="6:16">
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
@@ -2042,7 +2045,7 @@
       </c>
       <c r="P9" s="5"/>
     </row>
-    <row r="10" ht="14.25" spans="6:16">
+    <row r="10" ht="15" spans="6:16">
       <c r="F10" s="5" t="s">
         <v>59</v>
       </c>
@@ -2073,7 +2076,7 @@
       </c>
       <c r="P10" s="5"/>
     </row>
-    <row r="11" ht="14.25" spans="6:16">
+    <row r="11" ht="15" spans="6:16">
       <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
@@ -2104,7 +2107,7 @@
       </c>
       <c r="P11" s="5"/>
     </row>
-    <row r="12" ht="14.25" spans="6:16">
+    <row r="12" ht="15" spans="6:16">
       <c r="F12" s="5" t="s">
         <v>69</v>
       </c>
@@ -2137,7 +2140,7 @@
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" ht="14.25" spans="6:16">
+    <row r="13" ht="15" spans="6:16">
       <c r="F13" s="5" t="s">
         <v>73</v>
       </c>
@@ -2170,7 +2173,7 @@
       </c>
       <c r="P13" s="5"/>
     </row>
-    <row r="14" ht="14.25" spans="6:15">
+    <row r="14" ht="15" spans="6:15">
       <c r="F14" s="5" t="s">
         <v>78</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="6:15">
+    <row r="15" ht="15" spans="6:15">
       <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
@@ -2230,7 +2233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="6:15">
+    <row r="16" ht="15" spans="6:15">
       <c r="F16" s="5" t="s">
         <v>84</v>
       </c>
@@ -2275,10 +2278,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H47"/>
+  <dimension ref="D7:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2309,7 +2312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="4:7">
+    <row r="8" ht="15" spans="4:7">
       <c r="D8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>48</v>
@@ -2318,7 +2321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="4:7">
+    <row r="9" ht="15" spans="4:7">
       <c r="D9" s="4"/>
       <c r="F9" s="6" t="s">
         <v>48</v>
@@ -2327,7 +2330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="4:7">
+    <row r="10" ht="15" spans="4:7">
       <c r="D10" s="4"/>
       <c r="F10" s="6" t="s">
         <v>48</v>
@@ -2336,7 +2339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="4:7">
+    <row r="11" ht="15" spans="4:7">
       <c r="D11" s="4"/>
       <c r="F11" s="6" t="s">
         <v>48</v>
@@ -2345,7 +2348,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="4:7">
+    <row r="12" ht="15" spans="4:7">
       <c r="D12" s="4"/>
       <c r="F12" s="6" t="s">
         <v>48</v>
@@ -2354,7 +2357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="4:7">
+    <row r="13" ht="15" spans="4:7">
       <c r="D13" s="4"/>
       <c r="F13" s="6" t="s">
         <v>48</v>
@@ -2363,7 +2366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="4:7">
+    <row r="14" ht="15" spans="4:7">
       <c r="D14" s="4"/>
       <c r="F14" s="6" t="s">
         <v>54</v>
@@ -2372,7 +2375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="4:7">
+    <row r="15" ht="15" spans="4:7">
       <c r="D15" s="4"/>
       <c r="F15" s="6" t="s">
         <v>59</v>
@@ -2381,7 +2384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="4:7">
+    <row r="16" ht="15" spans="4:7">
       <c r="D16" s="4"/>
       <c r="F16" s="6" t="s">
         <v>59</v>
@@ -2390,7 +2393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="4:7">
+    <row r="17" ht="15" spans="4:7">
       <c r="D17" s="4"/>
       <c r="F17" s="6" t="s">
         <v>59</v>
@@ -2399,7 +2402,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="6:7">
+    <row r="18" ht="15" spans="6:7">
       <c r="F18" s="5" t="s">
         <v>69</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="6:7">
+    <row r="19" ht="15" spans="6:7">
       <c r="F19" s="5" t="s">
         <v>69</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="6:7">
+    <row r="20" ht="15" spans="6:7">
       <c r="F20" s="5" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="6:7">
+    <row r="21" ht="15" spans="6:7">
       <c r="F21" s="5" t="s">
         <v>69</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="6:7">
+    <row r="22" ht="15" spans="6:7">
       <c r="F22" s="5" t="s">
         <v>69</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="6:7">
+    <row r="23" ht="15" spans="6:7">
       <c r="F23" s="5" t="s">
         <v>69</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="6:7">
+    <row r="24" ht="15" spans="6:7">
       <c r="F24" s="5" t="s">
         <v>69</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="6:7">
+    <row r="25" ht="15" spans="6:7">
       <c r="F25" s="5" t="s">
         <v>69</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="6:7">
+    <row r="26" ht="15" spans="6:7">
       <c r="F26" s="5" t="s">
         <v>69</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="6:7">
+    <row r="27" ht="15" spans="6:7">
       <c r="F27" s="5" t="s">
         <v>69</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="6:7">
+    <row r="28" ht="15" spans="6:7">
       <c r="F28" s="5" t="s">
         <v>69</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="6:7">
+    <row r="29" ht="15" spans="6:7">
       <c r="F29" s="5" t="s">
         <v>69</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="6:7">
+    <row r="30" ht="15" spans="6:7">
       <c r="F30" s="5" t="s">
         <v>69</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="6:7">
+    <row r="31" ht="15" spans="6:7">
       <c r="F31" s="5" t="s">
         <v>69</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" ht="14.25" spans="6:7">
+    <row r="32" ht="15" spans="6:7">
       <c r="F32" s="5" t="s">
         <v>69</v>
       </c>
@@ -2519,7 +2522,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="6:7">
+    <row r="33" ht="15" spans="6:7">
       <c r="F33" s="5" t="s">
         <v>69</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" ht="14.25" spans="6:7">
+    <row r="34" ht="15" spans="6:7">
       <c r="F34" s="5" t="s">
         <v>69</v>
       </c>
@@ -2535,31 +2538,31 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" ht="14.25" spans="6:7">
+    <row r="35" ht="15" spans="6:7">
       <c r="F35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="6:7">
+      <c r="F36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="36" ht="14.25" spans="6:7">
-      <c r="F36" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" spans="6:7">
+    <row r="37" ht="15" spans="6:7">
       <c r="F37" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="6:7">
+      <c r="G37" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="6:7">
       <c r="F38" s="5" t="s">
         <v>78</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" ht="14.25" spans="6:7">
+    <row r="39" ht="15" spans="6:7">
       <c r="F39" s="5" t="s">
         <v>78</v>
       </c>
@@ -2575,23 +2578,23 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" ht="14.25" spans="6:7">
+    <row r="40" ht="15" spans="6:7">
       <c r="F40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="6:7">
+        <v>78</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="6:7">
       <c r="F41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" spans="6:7">
+      <c r="G41" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="6:7">
       <c r="F42" s="5" t="s">
         <v>81</v>
       </c>
@@ -2599,23 +2602,23 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" ht="14.25" spans="6:7">
+    <row r="43" ht="15" spans="6:7">
       <c r="F43" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" spans="6:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="6:7">
       <c r="F44" s="5" t="s">
         <v>84</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" spans="6:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="6:7">
       <c r="F45" s="5" t="s">
         <v>84</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" ht="14.25" spans="6:7">
+    <row r="46" ht="15" spans="6:7">
       <c r="F46" s="5" t="s">
         <v>84</v>
       </c>
@@ -2631,12 +2634,20 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" ht="14.25" spans="6:7">
+    <row r="47" ht="15" spans="6:7">
       <c r="F47" s="5" t="s">
         <v>84</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="6:7">
+      <c r="F48" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2672,13 +2683,13 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>91</v>
@@ -2686,7 +2697,7 @@
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
@@ -2694,7 +2705,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
@@ -2702,7 +2713,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -2710,7 +2721,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
@@ -2718,7 +2729,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>27</v>
@@ -2726,7 +2737,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
@@ -2734,7 +2745,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>33</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -568,6 +568,9 @@
     <t>notify-service.template-site.createPmTemplate</t>
   </si>
   <si>
+    <t>notify-service.template-site.updateSmsTemplate</t>
+  </si>
+  <si>
     <t>notify-service.send-setting-site.forbiddenConfig</t>
   </si>
   <si>
@@ -618,9 +621,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -669,29 +672,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -699,51 +679,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,9 +701,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -790,7 +785,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +793,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,18 +801,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -828,12 +831,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -846,6 +969,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -858,157 +999,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1019,45 +1022,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1076,15 +1040,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1096,6 +1051,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,151 +1083,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2278,10 +2281,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:H48"/>
+  <dimension ref="D7:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="7"/>
@@ -2548,26 +2551,26 @@
     </row>
     <row r="36" ht="15" spans="6:7">
       <c r="F36" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" ht="15" spans="6:7">
       <c r="F37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>30</v>
+        <v>73</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="38" ht="15" spans="6:7">
       <c r="F38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>117</v>
+      <c r="G38" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="15" spans="6:7">
@@ -2588,18 +2591,18 @@
     </row>
     <row r="41" ht="15" spans="6:7">
       <c r="F41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="42" ht="15" spans="6:7">
       <c r="F42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="6" t="s">
-        <v>120</v>
+      <c r="G42" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="15" spans="6:7">
@@ -2612,10 +2615,10 @@
     </row>
     <row r="44" ht="15" spans="6:7">
       <c r="F44" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="15" spans="6:7">
@@ -2623,7 +2626,7 @@
         <v>84</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" ht="15" spans="6:7">
@@ -2648,6 +2651,14 @@
       </c>
       <c r="G48" s="6" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="6:7">
+      <c r="F49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2683,13 +2694,13 @@
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>91</v>
@@ -2697,7 +2708,7 @@
     </row>
     <row r="8" ht="15.75" spans="6:7">
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>12</v>
@@ -2705,7 +2716,7 @@
     </row>
     <row r="9" ht="15.75" spans="6:7">
       <c r="F9" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>18</v>
@@ -2713,7 +2724,7 @@
     </row>
     <row r="10" ht="15.75" spans="6:7">
       <c r="F10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>21</v>
@@ -2721,7 +2732,7 @@
     </row>
     <row r="11" ht="15.75" spans="6:7">
       <c r="F11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
@@ -2729,7 +2740,7 @@
     </row>
     <row r="12" ht="15.75" spans="6:7">
       <c r="F12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>27</v>
@@ -2737,7 +2748,7 @@
     </row>
     <row r="13" ht="15.75" spans="6:7">
       <c r="F13" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>30</v>
@@ -2745,7 +2756,7 @@
     </row>
     <row r="14" ht="15.75" spans="6:7">
       <c r="F14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>33</v>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>Webhook Setting</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
   <si>
     <t>tab</t>
@@ -484,12 +487,18 @@
       <name val="DejaVu Sans"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -502,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,16 +537,16 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -546,7 +555,7 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -566,6 +575,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -717,9 +727,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -799,7 +809,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -827,10 +837,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1086,9 +1096,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1376,7 +1386,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1404,10 +1414,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1667,8 +1677,8 @@
     <col min="1" max="3" width="11.6016" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6016" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.9531" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5078" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.2109" style="1" customWidth="1"/>
@@ -2140,14 +2150,15 @@
     <col min="1" max="3" width="11.6016" style="6" customWidth="1"/>
     <col min="4" max="4" width="15.2109" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.6016" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.8125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="54.1328" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.8125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14" style="6" customWidth="1"/>
-    <col min="9" max="9" width="27.2109" style="6" customWidth="1"/>
+    <col min="8" max="8" width="53.4375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="59.6172" style="6" customWidth="1"/>
     <col min="10" max="10" width="18.6016" style="6" customWidth="1"/>
-    <col min="11" max="11" width="16.6016" style="6" customWidth="1"/>
+    <col min="11" max="11" width="35.6875" style="6" customWidth="1"/>
     <col min="12" max="12" width="19.2109" style="6" customWidth="1"/>
-    <col min="13" max="15" width="11.6016" style="6" customWidth="1"/>
+    <col min="13" max="13" width="38.5312" style="6" customWidth="1"/>
+    <col min="14" max="15" width="11.6016" style="6" customWidth="1"/>
     <col min="16" max="256" width="9" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2685,10 +2696,10 @@
         <v>51</v>
       </c>
       <c r="L18" t="s" s="4">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N18" t="s" s="4">
         <v>94</v>
@@ -2782,16 +2793,16 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s" s="3">
         <v>1</v>
       </c>
       <c r="F7" t="s" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1">
@@ -2804,7 +2815,7 @@
         <v>57</v>
       </c>
       <c r="G8" t="s" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1">
@@ -2817,7 +2828,7 @@
         <v>57</v>
       </c>
       <c r="G9" t="s" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1">
@@ -2830,7 +2841,7 @@
         <v>57</v>
       </c>
       <c r="G10" t="s" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1">
@@ -2843,7 +2854,7 @@
         <v>57</v>
       </c>
       <c r="G11" t="s" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1">
@@ -2856,7 +2867,7 @@
         <v>57</v>
       </c>
       <c r="G12" t="s" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1">
@@ -2869,7 +2880,7 @@
         <v>57</v>
       </c>
       <c r="G13" t="s" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1">
@@ -2882,7 +2893,7 @@
         <v>57</v>
       </c>
       <c r="G14" t="s" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
@@ -2895,7 +2906,7 @@
         <v>62</v>
       </c>
       <c r="G15" t="s" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
@@ -2908,7 +2919,7 @@
         <v>62</v>
       </c>
       <c r="G16" t="s" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
@@ -2921,7 +2932,7 @@
         <v>62</v>
       </c>
       <c r="G17" t="s" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
@@ -2934,7 +2945,7 @@
         <v>62</v>
       </c>
       <c r="G18" t="s" s="4">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
@@ -2947,7 +2958,7 @@
         <v>62</v>
       </c>
       <c r="G19" t="s" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
@@ -2960,7 +2971,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
@@ -2973,7 +2984,7 @@
         <v>66</v>
       </c>
       <c r="G21" t="s" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
@@ -2986,7 +2997,7 @@
         <v>66</v>
       </c>
       <c r="G22" t="s" s="4">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
@@ -2999,7 +3010,7 @@
         <v>66</v>
       </c>
       <c r="G23" t="s" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
@@ -3012,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="G24" t="s" s="4">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
@@ -3025,7 +3036,7 @@
         <v>66</v>
       </c>
       <c r="G25" t="s" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
@@ -3038,7 +3049,7 @@
         <v>66</v>
       </c>
       <c r="G26" t="s" s="4">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
@@ -3051,7 +3062,7 @@
         <v>70</v>
       </c>
       <c r="G27" t="s" s="4">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
@@ -3064,7 +3075,7 @@
         <v>70</v>
       </c>
       <c r="G28" t="s" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
@@ -3077,7 +3088,7 @@
         <v>70</v>
       </c>
       <c r="G29" t="s" s="4">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
@@ -3090,7 +3101,7 @@
         <v>74</v>
       </c>
       <c r="G30" t="s" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
@@ -3103,7 +3114,7 @@
         <v>74</v>
       </c>
       <c r="G31" t="s" s="4">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
@@ -3116,7 +3127,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
@@ -3129,7 +3140,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="4">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
@@ -3142,7 +3153,7 @@
         <v>78</v>
       </c>
       <c r="G34" t="s" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
@@ -3155,7 +3166,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
@@ -3168,7 +3179,7 @@
         <v>87</v>
       </c>
       <c r="G36" t="s" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
@@ -3181,7 +3192,7 @@
         <v>87</v>
       </c>
       <c r="G37" t="s" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
@@ -3194,7 +3205,7 @@
         <v>87</v>
       </c>
       <c r="G38" t="s" s="4">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
@@ -3207,7 +3218,7 @@
         <v>87</v>
       </c>
       <c r="G39" t="s" s="4">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
@@ -3220,7 +3231,7 @@
         <v>91</v>
       </c>
       <c r="G40" t="s" s="4">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -3233,7 +3244,7 @@
         <v>91</v>
       </c>
       <c r="G41" t="s" s="4">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
@@ -3246,7 +3257,7 @@
         <v>91</v>
       </c>
       <c r="G42" t="s" s="4">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
@@ -3259,7 +3270,7 @@
         <v>91</v>
       </c>
       <c r="G43" t="s" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
@@ -3285,7 +3296,7 @@
         <v>95</v>
       </c>
       <c r="G45" t="s" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
@@ -3298,7 +3309,7 @@
         <v>95</v>
       </c>
       <c r="G46" t="s" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -3311,7 +3322,7 @@
         <v>95</v>
       </c>
       <c r="G47" t="s" s="4">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
@@ -3324,7 +3335,7 @@
         <v>95</v>
       </c>
       <c r="G48" t="s" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
@@ -3337,7 +3348,7 @@
         <v>95</v>
       </c>
       <c r="G49" t="s" s="4">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
@@ -3350,7 +3361,7 @@
         <v>95</v>
       </c>
       <c r="G50" t="s" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
@@ -3363,7 +3374,7 @@
         <v>95</v>
       </c>
       <c r="G51" t="s" s="4">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
@@ -3376,7 +3387,7 @@
         <v>95</v>
       </c>
       <c r="G52" t="s" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowHeight="14480" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId4"/>
-    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId5"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId6"/>
+    <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
+    <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -307,6 +310,9 @@
   </si>
   <si>
     <t>Webhook Setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
   </si>
   <si>
     <t>project</t>
@@ -457,37 +463,178 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Droid Sans Fallback"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DejaVu Serif"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Droid Sans Fallback"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -497,11 +644,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -524,66 +857,391 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -709,7 +1367,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -718,7 +1376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -727,7 +1385,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -801,13 +1459,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -827,8 +1484,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +1496,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -857,8 +1513,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -883,8 +1538,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -909,8 +1563,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,8 +1588,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -961,8 +1613,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,8 +1638,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1013,8 +1663,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1039,8 +1688,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,8 +1713,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1079,9 +1726,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1096,13 +1749,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -1122,8 +1774,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,8 +1799,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1174,8 +1824,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1200,8 +1849,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1226,8 +1874,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1252,8 +1899,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,8 +1924,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,8 +1949,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,8 +1974,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,8 +1999,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,9 +2012,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1383,8 +2031,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1404,8 +2050,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +2062,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1434,8 +2079,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,8 +2104,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,8 +2129,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1512,8 +2154,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1538,8 +2179,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1564,8 +2204,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1590,8 +2229,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1616,8 +2254,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1642,8 +2279,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,9 +2292,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1667,29 +2309,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.6016" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6029411764706" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6016" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6029411764706" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5078" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5073529411765" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2109" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.2132352941176" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2109" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.4219" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2132352941176" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.8161764705882" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.4191176470588" style="1" customWidth="1"/>
     <col min="15" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:14">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1705,7 +2350,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:14">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1721,7 +2366,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:14">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1737,7 +2382,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:14">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1753,7 +2398,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:14">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1769,7 +2414,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:14">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1785,353 +2430,353 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" ht="12.8" customHeight="1">
+    <row r="7" ht="12.8" customHeight="1" spans="1:14">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I7" t="s" s="3">
+      <c r="I7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J7" t="s" s="3">
+      <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K7" t="s" s="3">
+      <c r="K7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L7" t="s" s="3">
+      <c r="L7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M7" t="s" s="3">
+      <c r="M7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N7" t="s" s="3">
+      <c r="N7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1">
+    <row r="8" ht="12.8" customHeight="1" spans="1:14">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="3">
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s" s="3">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s" s="3">
+      <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" t="s" s="4">
+      <c r="I8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J8" t="s" s="4">
+      <c r="J8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s" s="4">
+      <c r="K8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>0</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>1</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:14">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="4">
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" t="s" s="4">
+      <c r="I9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" t="s" s="4">
+      <c r="J9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s" s="4">
+      <c r="K9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>1</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:14">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s" s="4">
+      <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" t="s" s="4">
+      <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J10" t="s" s="4">
+      <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K10" t="s" s="4">
+      <c r="K10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>1</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:14">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="4">
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J11" t="s" s="4">
+      <c r="J11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K11" t="s" s="4">
+      <c r="K11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>1</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:14">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" t="s" s="4">
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J12" t="s" s="4">
+      <c r="J12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K12" t="s" s="4">
+      <c r="K12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>0</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>1</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:14">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" t="s" s="4">
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J13" t="s" s="4">
+      <c r="J13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K13" t="s" s="4">
+      <c r="K13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>0</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>1</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:14">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" t="s" s="4">
+      <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J14" t="s" s="4">
+      <c r="J14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K14" t="s" s="4">
+      <c r="K14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="6">
         <v>0</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="6">
         <v>1</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:14">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="4">
+      <c r="F15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s" s="4">
+      <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J15" t="s" s="4">
+      <c r="J15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s" s="4">
+      <c r="K15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="6">
         <v>0</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="6">
         <v>1</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:14">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" t="s" s="4">
+      <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I16" t="s" s="4">
+      <c r="I16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J16" t="s" s="4">
+      <c r="J16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K16" t="s" s="4">
+      <c r="K16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <v>0</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="6">
         <v>1</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2140,29 +2785,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.6016" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.2109" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.6016" style="6" customWidth="1"/>
-    <col min="6" max="6" width="54.1328" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.8125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="53.4375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="59.6172" style="6" customWidth="1"/>
-    <col min="10" max="10" width="18.6016" style="6" customWidth="1"/>
-    <col min="11" max="11" width="35.6875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="19.2109" style="6" customWidth="1"/>
-    <col min="13" max="13" width="38.5312" style="6" customWidth="1"/>
-    <col min="14" max="15" width="11.6016" style="6" customWidth="1"/>
-    <col min="16" max="256" width="9" style="6" customWidth="1"/>
+    <col min="1" max="3" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.2132352941176" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.1323529411765" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8161764705882" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.4411764705882" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.6176470588235" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6029411764706" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6911764705882" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2132352941176" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38.5294117647059" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="16" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2179,7 +2827,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2196,7 +2844,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2213,7 +2861,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2230,7 +2878,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2247,7 +2895,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2264,453 +2912,453 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" ht="12.8" customHeight="1">
+    <row r="7" ht="12.8" customHeight="1" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="3">
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s" s="3">
+      <c r="G7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H7" t="s" s="3">
+      <c r="H7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s" s="3">
+      <c r="I7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J7" t="s" s="3">
+      <c r="J7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s" s="3">
+      <c r="K7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L7" t="s" s="3">
+      <c r="L7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M7" t="s" s="3">
+      <c r="M7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N7" t="s" s="4">
+      <c r="N7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="O7" t="s" s="4">
+      <c r="O7" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1">
+    <row r="8" ht="12.8" customHeight="1" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" t="s" s="3">
+      <c r="F8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s" s="4">
+      <c r="G8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s" s="3">
+      <c r="H8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" t="s" s="3">
+      <c r="J8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K8" t="s" s="4">
+      <c r="K8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L8" t="s" s="4">
+      <c r="L8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s" s="4">
+      <c r="M8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N8" t="s" s="4">
+      <c r="N8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" ht="15" customHeight="1" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" t="s" s="4">
+      <c r="F9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s" s="4">
+      <c r="G9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H9" t="s" s="4">
+      <c r="H9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I9" t="s" s="4">
+      <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s" s="4">
+      <c r="J9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s" s="4">
+      <c r="K9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L9" t="s" s="4">
+      <c r="L9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M9" t="s" s="4">
+      <c r="M9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N9" t="s" s="4">
+      <c r="N9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" ht="15" customHeight="1" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" t="s" s="4">
+      <c r="F10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G10" t="s" s="4">
+      <c r="G10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H10" t="s" s="4">
+      <c r="H10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I10" t="s" s="4">
+      <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J10" t="s" s="4">
+      <c r="J10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K10" t="s" s="4">
+      <c r="K10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L10" t="s" s="4">
+      <c r="L10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M10" t="s" s="4">
+      <c r="M10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N10" t="s" s="4">
+      <c r="N10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" ht="15" customHeight="1" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" t="s" s="4">
+      <c r="F11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I11" t="s" s="4">
+      <c r="I11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J11" t="s" s="4">
+      <c r="J11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K11" t="s" s="4">
+      <c r="K11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="s" s="4">
+      <c r="L11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M11" t="s" s="4">
+      <c r="M11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N11" t="s" s="4">
+      <c r="N11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" ht="15" customHeight="1" spans="1:15">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" t="s" s="4">
+      <c r="F12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="I12" t="s" s="4">
+      <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="s" s="4">
+      <c r="J12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K12" t="s" s="4">
+      <c r="K12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L12" t="s" s="4">
+      <c r="L12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M12" t="s" s="4">
+      <c r="M12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N12" t="s" s="4">
+      <c r="N12" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" ht="15" customHeight="1" spans="1:15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" t="s" s="4">
+      <c r="F13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J13" t="s" s="4">
+      <c r="J13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K13" t="s" s="4">
+      <c r="K13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L13" t="s" s="4">
+      <c r="L13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M13" t="s" s="4">
+      <c r="M13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N13" t="s" s="4">
+      <c r="N13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="6">
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" ht="15" customHeight="1" spans="1:15">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" t="s" s="4">
+      <c r="F14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s" s="4">
+      <c r="J14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K14" t="s" s="4">
+      <c r="K14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L14" t="s" s="4">
+      <c r="L14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M14" t="s" s="4">
+      <c r="M14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N14" t="s" s="4">
+      <c r="N14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" ht="15" customHeight="1" spans="1:15">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="4">
+      <c r="F15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" t="s" s="4">
+      <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K15" t="s" s="4">
+      <c r="K15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="L15" t="s" s="4">
+      <c r="L15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M15" t="s" s="4">
+      <c r="M15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N15" t="s" s="4">
+      <c r="N15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" ht="15" customHeight="1" spans="1:15">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" t="s" s="4">
+      <c r="F16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G16" t="s" s="4">
+      <c r="G16" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H16" t="s" s="4">
+      <c r="H16" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="I16" t="s" s="4">
+      <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J16" t="s" s="4">
+      <c r="J16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s" s="4">
+      <c r="K16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L16" t="s" s="4">
+      <c r="L16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M16" t="s" s="4">
+      <c r="M16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N16" t="s" s="4">
+      <c r="N16" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" ht="15" customHeight="1" spans="1:15">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" t="s" s="4">
+      <c r="F17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G17" t="s" s="4">
+      <c r="G17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H17" t="s" s="4">
+      <c r="H17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I17" t="s" s="4">
+      <c r="I17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J17" t="s" s="4">
+      <c r="J17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s" s="4">
+      <c r="K17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L17" t="s" s="4">
+      <c r="L17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M17" t="s" s="4">
+      <c r="M17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N17" t="s" s="4">
+      <c r="N17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" ht="15" customHeight="1" spans="1:15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" t="s" s="4">
+      <c r="F18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I18" t="s" s="4">
+      <c r="I18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J18" t="s" s="4">
+      <c r="J18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="L18" t="s" s="4">
+      <c r="K18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M18" t="s" s="4">
+      <c r="L18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N18" t="s" s="4">
+      <c r="M18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="6">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_B</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2719,22 +3367,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6016" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.8125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.6016" style="7" customWidth="1"/>
-    <col min="6" max="6" width="53.8125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="65.6016" style="7" customWidth="1"/>
-    <col min="8" max="256" width="9" style="7" customWidth="1"/>
+    <col min="1" max="3" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8161764705882" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.8161764705882" style="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6029411764706" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2743,7 +3394,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2752,7 +3403,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2761,7 +3412,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2770,7 +3421,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2779,7 +3430,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2788,611 +3439,611 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="12.8" customHeight="1">
+    <row r="7" ht="12.8" customHeight="1" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s" s="3">
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" t="s" s="3">
-        <v>101</v>
-      </c>
-      <c r="G7" t="s" s="3">
+      <c r="F7" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" ht="12.8" customHeight="1">
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" ht="12.8" customHeight="1" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" t="s" s="4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G8" t="s" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" ht="12.8" customHeight="1">
+      <c r="G8" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" customHeight="1" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" t="s" s="4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G9" t="s" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" ht="12.8" customHeight="1">
+      <c r="G9" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" customHeight="1" spans="1:7">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" t="s" s="4">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" ht="12.8" customHeight="1">
+      <c r="G10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" customHeight="1" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" t="s" s="4">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1">
+      <c r="G11" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" t="s" s="4">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" t="s" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" ht="12.8" customHeight="1">
+      <c r="G12" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" customHeight="1" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" t="s" s="4">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G13" t="s" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" ht="12.8" customHeight="1">
+      <c r="G13" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" customHeight="1" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" t="s" s="4">
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s" s="4">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
+      <c r="G14" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" t="s" s="4">
+      <c r="F15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G15" t="s" s="4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+      <c r="G15" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" t="s" s="4">
+      <c r="F16" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G16" t="s" s="4">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
+      <c r="G16" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" t="s" s="4">
+      <c r="F17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G17" t="s" s="4">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
+      <c r="G17" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:7">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" t="s" s="4">
+      <c r="F18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G18" t="s" s="4">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+      <c r="G18" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" t="s" s="4">
+      <c r="F19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G19" t="s" s="4">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+      <c r="G19" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:7">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" t="s" s="4">
+      <c r="F20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
+      <c r="G20" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" t="s" s="4">
+      <c r="F21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G21" t="s" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
+      <c r="G21" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:7">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" t="s" s="4">
+      <c r="F22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G22" t="s" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
+      <c r="G22" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" t="s" s="4">
+      <c r="F23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G23" t="s" s="4">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
+      <c r="G23" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:7">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" t="s" s="4">
+      <c r="F24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G24" t="s" s="4">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
+      <c r="G24" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" t="s" s="4">
+      <c r="F25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G25" t="s" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
+      <c r="G25" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:7">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" t="s" s="4">
+      <c r="F26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G26" t="s" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
+      <c r="G26" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" t="s" s="4">
+      <c r="F27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G27" t="s" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
+      <c r="G27" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:7">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" t="s" s="4">
+      <c r="F28" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G28" t="s" s="4">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
+      <c r="G28" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" t="s" s="4">
+      <c r="F29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G29" t="s" s="4">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
+      <c r="G29" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:7">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" t="s" s="4">
+      <c r="F30" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G30" t="s" s="4">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
+      <c r="G30" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" t="s" s="4">
+      <c r="F31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G31" t="s" s="4">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
+      <c r="G31" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:7">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" t="s" s="4">
+      <c r="F32" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G32" t="s" s="4">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" ht="15" customHeight="1">
+      <c r="G32" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:7">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" t="s" s="4">
+      <c r="F33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G33" t="s" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1">
+      <c r="G33" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:7">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" t="s" s="4">
+      <c r="F34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G34" t="s" s="4">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1">
+      <c r="G34" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:7">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" t="s" s="4">
+      <c r="F35" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G35" t="s" s="4">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1">
+      <c r="G35" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:7">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" t="s" s="4">
+      <c r="F36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G36" t="s" s="4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1">
+      <c r="G36" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:7">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" t="s" s="4">
+      <c r="F37" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G37" t="s" s="4">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
+      <c r="G37" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:7">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" t="s" s="4">
+      <c r="F38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G38" t="s" s="4">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1">
+      <c r="G38" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:7">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" t="s" s="4">
+      <c r="F39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G39" t="s" s="4">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
+      <c r="G39" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:7">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" t="s" s="4">
+      <c r="F40" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G40" t="s" s="4">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1">
+      <c r="G40" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:7">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" t="s" s="4">
+      <c r="F41" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G41" t="s" s="4">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1">
+      <c r="G41" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:7">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" t="s" s="4">
+      <c r="F42" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G42" t="s" s="4">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1">
+      <c r="G42" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:7">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" t="s" s="4">
+      <c r="F43" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G43" t="s" s="4">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1">
+      <c r="G43" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:7">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" t="s" s="4">
+      <c r="F44" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" ht="15" customHeight="1" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" t="s" s="4">
+      <c r="F45" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G45" t="s" s="4">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1">
+      <c r="G45" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:7">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" t="s" s="4">
+      <c r="F46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G46" t="s" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1">
+      <c r="G46" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:7">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" t="s" s="4">
+      <c r="F47" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G47" t="s" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1">
+      <c r="G47" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" ht="15" customHeight="1" spans="1:7">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" t="s" s="4">
+      <c r="F48" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G48" t="s" s="4">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1">
+      <c r="G48" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" ht="15" customHeight="1" spans="1:7">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" t="s" s="4">
+      <c r="F49" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G49" t="s" s="4">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1">
+      <c r="G49" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" ht="15" customHeight="1" spans="1:7">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" t="s" s="4">
+      <c r="F50" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G50" t="s" s="4">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1">
+      <c r="G50" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" ht="15" customHeight="1" spans="1:7">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" t="s" s="4">
+      <c r="F51" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G51" t="s" s="4">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1">
+      <c r="G51" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" ht="15" customHeight="1" spans="1:7">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" t="s" s="4">
+      <c r="F52" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G52" t="s" s="4">
-        <v>145</v>
+      <c r="G52" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14480" activeTab="1"/>
+    <workbookView windowHeight="14480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -135,306 +136,312 @@
     <t>接收设置路由</t>
   </si>
   <si>
+    <t>choerodon.route.project.webhooks-setting</t>
+  </si>
+  <si>
+    <t>/notify/webhooks-setting</t>
+  </si>
+  <si>
+    <t>Webhooks路由</t>
+  </si>
+  <si>
+    <t>IAM_MENU_B</t>
+  </si>
+  <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>PAGE_PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>@PARENT_CODE</t>
+  </si>
+  <si>
+    <t>@RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>@TYPE</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center</t>
+  </si>
+  <si>
+    <t>消息中心</t>
+  </si>
+  <si>
+    <t>Message Center</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.site</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.send-setting</t>
+  </si>
+  <si>
+    <t>发送设置</t>
+  </si>
+  <si>
+    <t>Send Setting</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>mail_set</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.mail-template</t>
+  </si>
+  <si>
+    <t>邮件模板</t>
+  </si>
+  <si>
+    <t>Mail Template</t>
+  </si>
+  <si>
+    <t>application_model</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.inmail-template</t>
+  </si>
+  <si>
+    <t>站内信模板</t>
+  </si>
+  <si>
+    <t>Website Mail Template</t>
+  </si>
+  <si>
+    <t>inmail_template</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.mail-setting</t>
+  </si>
+  <si>
+    <t>邮箱配置</t>
+  </si>
+  <si>
+    <t>Mail Config</t>
+  </si>
+  <si>
+    <t>contact_mail</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.msg-record</t>
+  </si>
+  <si>
+    <t>发送记录</t>
+  </si>
+  <si>
+    <t>Message Record</t>
+  </si>
+  <si>
+    <t>speaker_notes</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.announcement</t>
+  </si>
+  <si>
+    <t>系统公告</t>
+  </si>
+  <si>
+    <t>Announcement</t>
+  </si>
+  <si>
+    <t>volume_up</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter</t>
+  </si>
+  <si>
+    <t>个人中心</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.user</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter.user-msg</t>
+  </si>
+  <si>
+    <t>消息通知</t>
+  </si>
+  <si>
+    <t>Message Notification</t>
+  </si>
+  <si>
+    <t>message_notification</t>
+  </si>
+  <si>
+    <t>choerodon.code.usercenter.receive-setting</t>
+  </si>
+  <si>
+    <t>接收设置</t>
+  </si>
+  <si>
+    <t>Receive Setting</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.webhooks-setting</t>
+  </si>
+  <si>
+    <t>Webhook设置</t>
+  </si>
+  <si>
+    <t>Webhook Setting</t>
+  </si>
+  <si>
+    <t>choerodon.code.project.general-setting</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.query</t>
+  </si>
+  <si>
+    <t>notify-service.email-template-site.listNames</t>
+  </si>
+  <si>
+    <t>notify-service.sms-template.listNames</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.delSendSetting</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.update</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.listNames</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.pageSite</t>
+  </si>
+  <si>
+    <t>notify-service.email-template-site.pageSite</t>
+  </si>
+  <si>
+    <t>notify-service.email-template-site.create</t>
+  </si>
+  <si>
+    <t>notify-service.email-template-site.delete</t>
+  </si>
+  <si>
+    <t>notify-service.email-template-site.update</t>
+  </si>
+  <si>
+    <t>notify-service.email-template-site.query</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.listNames</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.pageSite</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.create</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.delete</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.update</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.query</t>
+  </si>
+  <si>
+    <t>notify-service.config.selectEmail</t>
+  </si>
+  <si>
+    <t>notify-service.config.testEmailConnect</t>
+  </si>
+  <si>
+    <t>notify-service.config.updateEmail</t>
+  </si>
+  <si>
+    <t>notify-service.message-record-site.manualRetrySendEmail</t>
+  </si>
+  <si>
+    <t>notify-service.message-record-site.pageEmail</t>
+  </si>
+  <si>
+    <t>notify-service.system-announcement.pagingQuery</t>
+  </si>
+  <si>
+    <t>notify-service.system-announcement.create</t>
+  </si>
+  <si>
+    <t>notify-service.system-announcement.update</t>
+  </si>
+  <si>
+    <t>notify-service.system-announcement.delete</t>
+  </si>
+  <si>
+    <t>notify-service.site-msg-record.pagingQuery</t>
+  </si>
+  <si>
+    <t>notify-service.site-msg-record.batchDeleted</t>
+  </si>
+  <si>
+    <t>notify-service.site-msg-record.batchRead</t>
+  </si>
+  <si>
+    <t>notify-service.system-announcement.pagingQueryCompleted</t>
+  </si>
+  <si>
+    <t>notify-service.receive-setting.queryByUserId</t>
+  </si>
+  <si>
+    <t>notify-service.send-setting-site.listLevelAndAllowConfig</t>
+  </si>
+  <si>
+    <t>iam-service.user.queryByUserIdOrganizationProject</t>
+  </si>
+  <si>
+    <t>notify-service.receive-setting.update</t>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.webhooks-setting</t>
+  </si>
+  <si>
     <t>choerodon.route.msg-center.webhooks-setting</t>
   </si>
   <si>
-    <t>/notify/webhooks-setting</t>
-  </si>
-  <si>
-    <t>Webhooks路由</t>
-  </si>
-  <si>
-    <t>IAM_MENU_B</t>
-  </si>
-  <si>
-    <t>NAME:zh_CN</t>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-  </si>
-  <si>
-    <t>PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>@PARENT_CODE</t>
-  </si>
-  <si>
-    <t>@RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>@TYPE</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center</t>
-  </si>
-  <si>
-    <t>消息中心</t>
-  </si>
-  <si>
-    <t>Message Center</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.site</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center.send-setting</t>
-  </si>
-  <si>
-    <t>发送设置</t>
-  </si>
-  <si>
-    <t>Send Setting</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>mail_set</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center.mail-template</t>
-  </si>
-  <si>
-    <t>邮件模板</t>
-  </si>
-  <si>
-    <t>Mail Template</t>
-  </si>
-  <si>
-    <t>application_model</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center.inmail-template</t>
-  </si>
-  <si>
-    <t>站内信模板</t>
-  </si>
-  <si>
-    <t>Website Mail Template</t>
-  </si>
-  <si>
-    <t>inmail_template</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center.mail-setting</t>
-  </si>
-  <si>
-    <t>邮箱配置</t>
-  </si>
-  <si>
-    <t>Mail Config</t>
-  </si>
-  <si>
-    <t>contact_mail</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center.msg-record</t>
-  </si>
-  <si>
-    <t>发送记录</t>
-  </si>
-  <si>
-    <t>Message Record</t>
-  </si>
-  <si>
-    <t>speaker_notes</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center.announcement</t>
-  </si>
-  <si>
-    <t>系统公告</t>
-  </si>
-  <si>
-    <t>Announcement</t>
-  </si>
-  <si>
-    <t>volume_up</t>
-  </si>
-  <si>
-    <t>choerodon.code.usercenter</t>
-  </si>
-  <si>
-    <t>个人中心</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.user</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>choerodon.code.usercenter.user-msg</t>
-  </si>
-  <si>
-    <t>消息通知</t>
-  </si>
-  <si>
-    <t>Message Notification</t>
-  </si>
-  <si>
-    <t>message_notification</t>
-  </si>
-  <si>
-    <t>choerodon.code.usercenter.receive-setting</t>
-  </si>
-  <si>
-    <t>接收设置</t>
-  </si>
-  <si>
-    <t>Receive Setting</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t>choerodon.code.msg-center.webhooks-setting</t>
-  </si>
-  <si>
-    <t>Webhook设置</t>
-  </si>
-  <si>
-    <t>Webhook Setting</t>
-  </si>
-  <si>
-    <t>choerodon.code.project.general-setting</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>tab</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>notify-service.send-setting-site.query</t>
-  </si>
-  <si>
-    <t>notify-service.email-template-site.listNames</t>
-  </si>
-  <si>
-    <t>notify-service.sms-template.listNames</t>
-  </si>
-  <si>
-    <t>notify-service.send-setting-site.delSendSetting</t>
-  </si>
-  <si>
-    <t>notify-service.send-setting-site.update</t>
-  </si>
-  <si>
-    <t>notify-service.pm-template-site.listNames</t>
-  </si>
-  <si>
-    <t>notify-service.send-setting-site.pageSite</t>
-  </si>
-  <si>
-    <t>notify-service.email-template-site.pageSite</t>
-  </si>
-  <si>
-    <t>notify-service.email-template-site.create</t>
-  </si>
-  <si>
-    <t>notify-service.email-template-site.delete</t>
-  </si>
-  <si>
-    <t>notify-service.email-template-site.update</t>
-  </si>
-  <si>
-    <t>notify-service.email-template-site.query</t>
-  </si>
-  <si>
-    <t>notify-service.send-setting-site.listNames</t>
-  </si>
-  <si>
-    <t>notify-service.pm-template-site.pageSite</t>
-  </si>
-  <si>
-    <t>notify-service.pm-template-site.create</t>
-  </si>
-  <si>
-    <t>notify-service.pm-template-site.delete</t>
-  </si>
-  <si>
-    <t>notify-service.pm-template-site.update</t>
-  </si>
-  <si>
-    <t>notify-service.pm-template-site.query</t>
-  </si>
-  <si>
-    <t>notify-service.config.selectEmail</t>
-  </si>
-  <si>
-    <t>notify-service.config.testEmailConnect</t>
-  </si>
-  <si>
-    <t>notify-service.config.updateEmail</t>
-  </si>
-  <si>
-    <t>notify-service.message-record-site.manualRetrySendEmail</t>
-  </si>
-  <si>
-    <t>notify-service.message-record-site.pageEmail</t>
-  </si>
-  <si>
-    <t>notify-service.system-announcement.pagingQuery</t>
-  </si>
-  <si>
-    <t>notify-service.system-announcement.create</t>
-  </si>
-  <si>
-    <t>notify-service.system-announcement.update</t>
-  </si>
-  <si>
-    <t>notify-service.system-announcement.delete</t>
-  </si>
-  <si>
-    <t>notify-service.site-msg-record.pagingQuery</t>
-  </si>
-  <si>
-    <t>notify-service.site-msg-record.batchDeleted</t>
-  </si>
-  <si>
-    <t>notify-service.site-msg-record.batchRead</t>
-  </si>
-  <si>
-    <t>notify-service.system-announcement.pagingQueryCompleted</t>
-  </si>
-  <si>
-    <t>notify-service.receive-setting.queryByUserId</t>
-  </si>
-  <si>
-    <t>notify-service.send-setting-site.listLevelAndAllowConfig</t>
-  </si>
-  <si>
-    <t>iam-service.user.queryByUserIdOrganizationProject</t>
-  </si>
-  <si>
-    <t>notify-service.receive-setting.update</t>
-  </si>
-  <si>
     <t>notify-service.web-hook.pagingByMessage</t>
   </si>
   <si>
@@ -457,6 +464,24 @@
   </si>
   <si>
     <t>notify-service.web-hook.enabled</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>GENERAL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
   </si>
 </sst>
 </file>
@@ -465,9 +490,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -497,8 +522,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -510,44 +564,6 @@
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -567,10 +583,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -589,24 +606,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,15 +630,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -649,7 +674,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,37 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,25 +734,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,31 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,25 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,19 +818,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,36 +925,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -955,148 +950,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2313,8 +2338,8 @@
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -2789,8 +2814,8 @@
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -3371,7 +3396,7 @@
   <sheetPr/>
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3931,10 +3956,10 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>39</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:7">
@@ -3944,10 +3969,10 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:7">
@@ -3957,10 +3982,10 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:7">
@@ -3970,10 +3995,10 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:7">
@@ -3983,10 +4008,10 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:7">
@@ -3996,10 +4021,10 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:7">
@@ -4009,10 +4034,10 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:7">
@@ -4022,10 +4047,10 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:7">
@@ -4035,10 +4060,10 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="5" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4049,4 +4074,66 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="D7:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:M$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="21.4411764705882" customWidth="1"/>
+    <col min="6" max="6" width="36.0220588235294" customWidth="1"/>
+    <col min="7" max="7" width="34.0588235294118" customWidth="1"/>
+    <col min="8" max="8" width="57.2279411764706" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8">
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14480" activeTab="3"/>
+    <workbookView windowWidth="19335" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="157">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -343,10 +343,16 @@
     <t>notify-service.send-setting-site.delSendSetting</t>
   </si>
   <si>
+    <t>notify-service.send-setting-site.getMsgServiceTree</t>
+  </si>
+  <si>
     <t>notify-service.send-setting-site.update</t>
   </si>
   <si>
     <t>notify-service.pm-template-site.listNames</t>
+  </si>
+  <si>
+    <t>notify-service.pm-template-site.updateSendSetting</t>
   </si>
   <si>
     <t>notify-service.send-setting-site.pageSite</t>
@@ -489,9 +495,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -509,7 +515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,6 +528,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -529,38 +551,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -575,40 +589,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,14 +612,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
@@ -645,15 +649,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,13 +680,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +722,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,19 +788,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,31 +824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,25 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,61 +860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,20 +889,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -951,17 +954,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -980,151 +977,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1139,54 +1145,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2334,28 +2340,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5073529411765" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5047619047619" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2132352941176" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.2095238095238" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2132352941176" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8161764705882" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.4191176470588" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.8190476190476" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.4190476190476" style="1" customWidth="1"/>
     <col min="15" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2810,7 +2816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -2820,18 +2826,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.6029411764706" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.2132352941176" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6029411764706" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.1323529411765" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8161764705882" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.4411764705882" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.6176470588235" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6029411764706" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6911764705882" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2132352941176" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38.5294117647059" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6029411764706" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.2095238095238" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.1333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8190476190476" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.4380952380952" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.6190476190476" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.6" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6952380952381" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38.5333333333333" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.6" style="1" customWidth="1"/>
     <col min="16" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3392,21 +3398,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6029411764706" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8161764705882" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6029411764706" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.8161764705882" style="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6029411764706" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8190476190476" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.8190476190476" style="1" customWidth="1"/>
+    <col min="7" max="7" width="65.6" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3563,36 +3569,36 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:7">
+    <row r="15" ht="12.8" customHeight="1" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:7">
+    <row r="16" ht="12.8" customHeight="1" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>112</v>
@@ -3657,7 +3663,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>117</v>
@@ -3670,7 +3676,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>118</v>
@@ -3725,7 +3731,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1" spans="1:7">
@@ -3735,10 +3741,10 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1" spans="1:7">
@@ -3748,10 +3754,10 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" spans="1:7">
@@ -3774,7 +3780,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>125</v>
@@ -3787,7 +3793,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>126</v>
@@ -3800,7 +3806,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>127</v>
@@ -3813,7 +3819,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>128</v>
@@ -3852,7 +3858,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>131</v>
@@ -3865,7 +3871,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>132</v>
@@ -3904,7 +3910,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>135</v>
@@ -3917,7 +3923,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>136</v>
@@ -3956,10 +3962,10 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1" spans="1:7">
@@ -3969,10 +3975,10 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="1:7">
@@ -3982,7 +3988,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>142</v>
@@ -3995,7 +4001,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>143</v>
@@ -4008,7 +4014,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>144</v>
@@ -4021,7 +4027,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>145</v>
@@ -4034,7 +4040,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>146</v>
@@ -4047,7 +4053,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>147</v>
@@ -4060,10 +4066,36 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="53" ht="15" customHeight="1" spans="1:7">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1" spans="1:7">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4077,42 +4109,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I$1:M$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.94285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="21.4411764705882" customWidth="1"/>
-    <col min="6" max="6" width="36.0220588235294" customWidth="1"/>
-    <col min="7" max="7" width="34.0588235294118" customWidth="1"/>
-    <col min="8" max="8" width="57.2279411764706" customWidth="1"/>
+    <col min="4" max="4" width="21.4380952380952" customWidth="1"/>
+    <col min="6" max="6" width="36.0190476190476" customWidth="1"/>
+    <col min="7" max="7" width="34.0571428571429" customWidth="1"/>
+    <col min="8" max="8" width="57.2285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G7" t="s">
         <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -4123,13 +4155,13 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G9" t="s">
         <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7590" activeTab="2"/>
+    <workbookView windowWidth="28000" windowHeight="20200" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>choerodon.code.msg-center.webhooks-setting</t>
-  </si>
-  <si>
-    <t>choerodon.route.msg-center.webhooks-setting</t>
   </si>
   <si>
     <t>notify-service.web-hook.pagingByMessage</t>
@@ -495,10 +492,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -515,6 +512,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -522,7 +533,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,69 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,8 +632,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,32 +647,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,7 +677,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,19 +779,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,13 +815,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,13 +845,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,115 +857,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,6 +886,60 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -913,36 +964,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -950,30 +971,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,148 +986,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,54 +1142,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -2340,12 +2337,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -2354,14 +2351,14 @@
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5047619047619" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5083333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2095238095238" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.2083333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8190476190476" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.4190476190476" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2083333333333" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.8166666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.4166666666667" style="1" customWidth="1"/>
     <col min="15" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2816,26 +2813,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.2095238095238" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.2083333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
     <col min="6" max="6" width="54.1333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8190476190476" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.4380952380952" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.6190476190476" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8166666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.4416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.6166666666667" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6952380952381" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2095238095238" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.6916666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.2083333333333" style="1" customWidth="1"/>
     <col min="13" max="13" width="38.5333333333333" style="1" customWidth="1"/>
     <col min="14" max="15" width="11.6" style="1" customWidth="1"/>
     <col min="16" max="256" width="9" style="1" customWidth="1"/>
@@ -3398,20 +3395,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8190476190476" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8166666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.8190476190476" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.8166666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="65.6" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
@@ -3991,7 +3988,7 @@
         <v>141</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1" spans="1:7">
@@ -4004,7 +4001,7 @@
         <v>141</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1" spans="1:7">
@@ -4017,7 +4014,7 @@
         <v>141</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1" spans="1:7">
@@ -4030,7 +4027,7 @@
         <v>141</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" spans="1:7">
@@ -4043,7 +4040,7 @@
         <v>141</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1" spans="1:7">
@@ -4056,7 +4053,7 @@
         <v>141</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" spans="1:7">
@@ -4069,7 +4066,7 @@
         <v>141</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1" spans="1:7">
@@ -4082,7 +4079,7 @@
         <v>141</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1" spans="1:7">
@@ -4095,7 +4092,7 @@
         <v>141</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4109,42 +4106,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:M$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94285714285714" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.94166666666667" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="21.4380952380952" customWidth="1"/>
-    <col min="6" max="6" width="36.0190476190476" customWidth="1"/>
-    <col min="7" max="7" width="34.0571428571429" customWidth="1"/>
-    <col min="8" max="8" width="57.2285714285714" customWidth="1"/>
+    <col min="4" max="4" width="21.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="36.0166666666667" customWidth="1"/>
+    <col min="7" max="7" width="34.0583333333333" customWidth="1"/>
+    <col min="8" max="8" width="57.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
         <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
         <v>95</v>
@@ -4155,13 +4152,13 @@
     </row>
     <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" t="s">
         <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yangyuqing123\project\框架组\notify-service\src\main\resources\script\meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFA1F2-A3C9-44E7-AA99-76AF6ECD5F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="20200" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="158">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -485,19 +491,21 @@
   </si>
   <si>
     <t>organization_project</t>
+  </si>
+  <si>
+    <t>notify-service.webhook-record.pagingByMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.site.message-log-webhook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -508,161 +516,15 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="DejaVu Sans"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,194 +537,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -885,251 +561,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1140,57 +574,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1263,6 +650,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1494,7 +884,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1784,7 +1174,7 @@
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2060,7 +1450,7 @@
           <a:miter lim="400000"/>
         </a:ln>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2333,36 +1723,36 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="47" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.5083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.2083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2083333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.8166666666667" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.4166666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="1" customWidth="1"/>
     <col min="15" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2378,7 +1768,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:14">
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2394,7 +1784,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:14">
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2410,7 +1800,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:14">
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2426,7 +1816,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:14">
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2442,7 +1832,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:14">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2458,7 +1848,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" ht="12.8" customHeight="1" spans="1:14">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2496,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="1:14">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2530,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:14">
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2564,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:14">
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2598,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:14">
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2632,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:14">
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2666,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:14">
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2700,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:14">
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2734,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:14">
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2768,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:14">
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2803,8 +2193,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -2813,32 +2204,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.2083333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.1333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8166666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="53.4416666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="59.6166666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35.6916666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.2083333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="38.5333333333333" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.6" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
     <col min="16" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2855,7 +2245,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:15">
+    <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2872,7 +2262,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:15">
+    <row r="3" spans="1:15" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2889,7 +2279,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2906,7 +2296,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:15">
+    <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2923,7 +2313,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:15">
+    <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -2940,7 +2330,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" ht="12.8" customHeight="1" spans="1:15">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2981,7 +2371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="1:15">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3016,7 +2406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:15">
+    <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3053,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:15">
+    <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3090,7 +2480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="1:15">
+    <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3127,7 +2517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:15">
+    <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3164,7 +2554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:15">
+    <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3201,7 +2591,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:15">
+    <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3238,7 +2628,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="1:15">
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3273,7 +2663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="1:15">
+    <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3310,7 +2700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:15">
+    <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3347,7 +2737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:15">
+    <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3385,8 +2775,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_B</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -3395,25 +2786,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="11.6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.8166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.8166666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="65.6" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="65.5703125" style="1" customWidth="1"/>
     <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3422,7 +2812,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="15" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="15" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3431,7 +2821,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="15" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="15" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3440,7 +2830,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="15" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3449,7 +2839,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="15" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3458,7 +2848,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="15" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3467,7 +2857,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" ht="12.8" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3484,7 +2874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" ht="12.8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3497,7 +2887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" ht="12.8" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3510,7 +2900,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" ht="12.8" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3523,7 +2913,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" ht="12.8" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3536,7 +2926,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" ht="12.8" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -3549,7 +2939,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" ht="12.8" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3562,7 +2952,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" ht="12.8" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3575,7 +2965,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" ht="12.8" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -3588,7 +2978,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" ht="12.8" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -3601,7 +2991,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -3614,7 +3004,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -3627,7 +3017,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3640,7 +3030,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -3653,7 +3043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -3666,7 +3056,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3679,7 +3069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3692,7 +3082,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3705,7 +3095,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3718,7 +3108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3731,7 +3121,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3744,7 +3134,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3757,7 +3147,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3770,7 +3160,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1" spans="1:7">
+    <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3783,7 +3173,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:7">
+    <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3796,7 +3186,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:7">
+    <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3809,33 +3199,33 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1" spans="1:7">
+    <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="5" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" spans="1:7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" ht="15" customHeight="1" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3845,10 +3235,10 @@
         <v>78</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" ht="15" customHeight="1" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3858,10 +3248,10 @@
         <v>78</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" ht="15" customHeight="1" spans="1:7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3871,23 +3261,23 @@
         <v>78</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" ht="15" customHeight="1" spans="1:7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3897,10 +3287,10 @@
         <v>87</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3910,10 +3300,10 @@
         <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" ht="15" customHeight="1" spans="1:7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3923,23 +3313,23 @@
         <v>87</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" spans="1:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" ht="15" customHeight="1" spans="1:7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3949,10 +3339,10 @@
         <v>91</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" ht="15" customHeight="1" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3962,10 +3352,10 @@
         <v>91</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1" spans="1:7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3975,23 +3365,23 @@
         <v>91</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" ht="15" customHeight="1" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="5" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" ht="15" customHeight="1" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4001,10 +3391,10 @@
         <v>141</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" ht="15" customHeight="1" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4014,10 +3404,10 @@
         <v>141</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" ht="15" customHeight="1" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4027,10 +3417,10 @@
         <v>141</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" ht="15" customHeight="1" spans="1:7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -4040,10 +3430,10 @@
         <v>141</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" ht="15" customHeight="1" spans="1:7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -4053,10 +3443,10 @@
         <v>141</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" ht="15" customHeight="1" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -4066,10 +3456,10 @@
         <v>141</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -4079,10 +3469,10 @@
         <v>141</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" ht="15" customHeight="1" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -4092,12 +3482,26 @@
         <v>141</v>
       </c>
       <c r="G54" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000IAM_MENU_PERMISSION</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -4106,20 +3510,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94166666666667" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="4" max="4" width="21.4416666666667" customWidth="1"/>
-    <col min="6" max="6" width="36.0166666666667" customWidth="1"/>
-    <col min="7" max="7" width="34.0583333333333" customWidth="1"/>
-    <col min="8" max="8" width="57.225" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -4139,7 +3542,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="4:8">
       <c r="F8" t="s">
         <v>153</v>
       </c>
@@ -4150,7 +3553,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>154</v>
       </c>
@@ -4162,7 +3565,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yangyuqing123\project\框架组\notify-service\src\main\resources\script\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFA1F2-A3C9-44E7-AA99-76AF6ECD5F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7391D-01D9-4678-BD8C-4F247FD7BC6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="195">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -497,7 +497,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.code.site.message-log-webhook</t>
+    <t>choerodon.route.msg-center.msg-record</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify-service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件日志路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notify/msg-log/email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log-email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log-webhook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notify/msg-log/webhook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webhook日志路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notify/msg-log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify-service</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>site</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息日志路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.msg-log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speaker_notes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.msg-log-email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email Log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log-email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.msg-log-webhook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webhook日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webhook Log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log-webhook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify-service.message-record-site.pageEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.msg-log-email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log-email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notify-service.message-record-org.pageEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log-webhook</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.msg-center.msg-log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.msg-center.msg-log</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1729,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -1744,7 +1892,7 @@
     <col min="7" max="7" width="41.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
@@ -2029,22 +2177,22 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="5" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -2063,22 +2211,22 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -2097,22 +2245,22 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="5" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -2131,19 +2279,19 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>16</v>
@@ -2165,19 +2313,19 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>16</v>
@@ -2189,6 +2337,107 @@
         <v>1</v>
       </c>
       <c r="N16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2205,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV18"/>
+  <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -2224,7 +2473,8 @@
     <col min="11" max="11" width="35.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="38.5703125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" customWidth="1"/>
     <col min="16" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2613,7 +2863,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>51</v>
+        <v>176</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>14</v>
@@ -2635,32 +2885,34 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="5" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="J15" s="5" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="O15" s="6">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
@@ -2670,34 +2922,32 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="5" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N16" s="5"/>
       <c r="O16" s="6">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
@@ -2707,34 +2957,32 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>94</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N17" s="5"/>
       <c r="O17" s="6">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
@@ -2744,33 +2992,142 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O19" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L21" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O21" s="6">
         <v>90</v>
       </c>
     </row>
@@ -2787,10 +3144,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV55"/>
+  <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -3206,10 +3563,10 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="5" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
@@ -3219,10 +3576,10 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" customHeight="1">
@@ -3232,10 +3589,10 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="5" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" customHeight="1">
@@ -3245,10 +3602,10 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="5" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" customHeight="1">
@@ -3258,10 +3615,10 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="5" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" customHeight="1">
@@ -3271,10 +3628,10 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="5" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" customHeight="1">
@@ -3284,10 +3641,10 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="5" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1">
@@ -3297,10 +3654,10 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1">
@@ -3310,10 +3667,10 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1">
@@ -3323,10 +3680,10 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="5" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
@@ -3336,10 +3693,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
@@ -3349,10 +3706,10 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1">
@@ -3362,10 +3719,10 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" customHeight="1">
@@ -3375,10 +3732,10 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" customHeight="1">
@@ -3388,10 +3745,10 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="5" t="s">
-        <v>141</v>
+        <v>87</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" customHeight="1">
@@ -3401,10 +3758,10 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="5" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
@@ -3414,10 +3771,10 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="5" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
@@ -3427,10 +3784,10 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="5" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
@@ -3440,10 +3797,10 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
@@ -3456,7 +3813,7 @@
         <v>141</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1">
@@ -3469,7 +3826,7 @@
         <v>141</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1">
@@ -3482,7 +3839,7 @@
         <v>141</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
@@ -3495,6 +3852,71 @@
         <v>141</v>
       </c>
       <c r="G55" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3520,8 +3942,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
     <col min="8" max="8" width="57.28515625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/script/meta/micro-service-init-data.xlsx
+++ b/src/main/resources/script/meta/micro-service-init-data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="172">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -749,8 +749,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -803,10 +803,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,16 +818,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -839,15 +832,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,16 +854,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,40 +909,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,6 +938,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -963,7 +963,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,7 +1071,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -987,145 +1125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,13 +1143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,9 +1159,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,21 +1232,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1220,185 +1246,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2170,7 +2170,7 @@
   <dimension ref="A7:XFD21"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2576,9 +2576,7 @@
       <c r="M18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="N18" s="6"/>
       <c r="O18" s="6">
         <v>10</v>
       </c>
@@ -2608,9 +2606,7 @@
       <c r="M19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="N19" s="6"/>
       <c r="O19" s="6">
         <v>20</v>
       </c>
@@ -19048,7 +19044,7 @@
   <sheetPr/>
   <dimension ref="D7:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
